--- a/Fase 1/Evidencias Grupales/gantt.xlsx
+++ b/Fase 1/Evidencias Grupales/gantt.xlsx
@@ -1,30 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29420"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usach\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mlwat\Dropbox (Personal)\Client Folders\Microsoft\Microsoft Office Template Project\02_Template Sent for MS Review\Rapid Refresh Batch B78\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D40EA08F-85FC-4E41-BAAF-12CB896F6FF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="146" documentId="11_3C4179B01545E19DD6C385890107473B0B440F85" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4FA843D9-90B3-4BA2-9874-8BA8F07B8B25}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Project schedule" sheetId="11" r:id="rId1"/>
+    <sheet name="Gantt2.0" sheetId="11" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="Display_Week">'Project schedule'!$Q$2</definedName>
-    <definedName name="Project_Start">'Project schedule'!$Q$1</definedName>
-    <definedName name="task_end" localSheetId="0">'Project schedule'!$F1</definedName>
-    <definedName name="task_progress" localSheetId="0">'Project schedule'!$D1</definedName>
-    <definedName name="task_start" localSheetId="0">'Project schedule'!$E1</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">'Project schedule'!$4:$6</definedName>
+    <definedName name="Display_Week">Gantt2.0!$Q$2</definedName>
+    <definedName name="Project_Start">Gantt2.0!$Q$1</definedName>
+    <definedName name="task_end" localSheetId="0">Gantt2.0!$F1</definedName>
+    <definedName name="task_progress" localSheetId="0">Gantt2.0!$D1</definedName>
+    <definedName name="task_start" localSheetId="0">Gantt2.0!$E1</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">Gantt2.0!$4:$6</definedName>
     <definedName name="today" localSheetId="0">TODAY()</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,22 +36,21 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
-    </ext>
-    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
-      <xlwcv:version setVersion="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="32">
   <si>
-    <t xml:space="preserve">Do not delete this row. This row is hidden to preserve a formula that is used to highlight the current day within the project schedule. </t>
+    <t>SISTEMA DE REGISTRO DE ASISTENCIAS Y NOTAS DE ACADEMIA DE 3° Y 4° MEDIOS</t>
   </si>
   <si>
-    <t>Identify risks</t>
+    <t>Inicio de Proyecto</t>
   </si>
   <si>
     <t>ACTIVIDAD</t>
@@ -63,52 +62,85 @@
     <t>PROGRESO</t>
   </si>
   <si>
-    <t>INICO</t>
+    <t>INICIO</t>
   </si>
   <si>
     <t>FIN</t>
   </si>
   <si>
-    <t xml:space="preserve">INICIO DE PROYECTO </t>
+    <t xml:space="preserve">Do not delete this row. This row is hidden to preserve a formula that is used to highlight the current day within the project schedule. </t>
   </si>
   <si>
-    <t>SEMANA</t>
+    <t>Fase 1</t>
   </si>
   <si>
-    <t>Recolección de requisitos y planificación</t>
+    <t>Levantamiento de Requerimientos</t>
   </si>
   <si>
     <t>DANIEL Y MATIAS</t>
   </si>
   <si>
-    <t>Diseño del modelo de datos académico</t>
+    <t>Reuniones con PAIEP y análisis de procesos</t>
   </si>
   <si>
-    <t>prototipo de interfaz</t>
+    <t>Redacción y validación de requerimientos</t>
   </si>
   <si>
-    <t>Implementación Backend (Laravel)</t>
+    <t>Fase 2</t>
   </si>
   <si>
-    <t>Desarrollo Frontend SPA</t>
+    <t>Diseño de Arquitectura y Sistema</t>
   </si>
   <si>
-    <t>Implementación BD y scripts</t>
+    <t>Diseño del Modelo de Base de Datos</t>
   </si>
   <si>
-    <t>Pruebas funcionales, integración y carga</t>
+    <t>Diseño de Arquitectura MVC</t>
   </si>
   <si>
-    <t>Configuración de seguridad y accesos</t>
+    <t>Creación y validación de Prototipos de UI</t>
   </si>
   <si>
-    <t>Prueba piloto en la USACH</t>
+    <t>Fase 3</t>
   </si>
   <si>
-    <t>SISTEMA DE REGISTRO DE ASISTENCIAS Y NOTAS DE ACADEMIA DE 3° Y 4° MEDIOS</t>
+    <t>Desarrollo de Módulos Principales</t>
   </si>
   <si>
-    <t>Responsables: Matias Manriquez y Daniel Venegas</t>
+    <t>Implementación de Base de Datos (Scripts)</t>
+  </si>
+  <si>
+    <t>Desarrollo Backend (Módulos Usuarios, Asistencia, Notas)</t>
+  </si>
+  <si>
+    <t>Configuración de Seguridad y Accesos</t>
+  </si>
+  <si>
+    <t>Desarrollo Frontend</t>
+  </si>
+  <si>
+    <t>Fase 4</t>
+  </si>
+  <si>
+    <t>Implementación de Reportes y Dashboards</t>
+  </si>
+  <si>
+    <t>Desarrollo de lógica de reportes</t>
+  </si>
+  <si>
+    <t>Implementación de Dashboards (vistas)</t>
+  </si>
+  <si>
+    <t>Pruebas y Validación</t>
+  </si>
+  <si>
+    <t>Pruebas funcionales e integración (Internas)</t>
+  </si>
+  <si>
+    <t>Prueba Piloto y Validación (Usuarios PAIEP)</t>
+  </si>
+  <si>
+    <t>Gestión y Documentación del Proyecto</t>
   </si>
 </sst>
 </file>
@@ -122,7 +154,7 @@
     <numFmt numFmtId="167" formatCode="mmm\ d\,\ yyyy"/>
     <numFmt numFmtId="168" formatCode="d"/>
   </numFmts>
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -272,28 +304,29 @@
     </font>
     <font>
       <b/>
-      <sz val="12"/>
+      <sz val="16"/>
+      <color theme="9"/>
+      <name val="Arial Black"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Arial Black"/>
       <family val="2"/>
       <scheme val="major"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="14"/>
+      <color theme="9"/>
       <name val="Arial Black"/>
       <family val="2"/>
       <scheme val="major"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -320,6 +353,42 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59996337778862885"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59996337778862885"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59996337778862885"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59996337778862885"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor theme="4"/>
       </patternFill>
@@ -331,7 +400,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -426,24 +495,51 @@
       <left/>
       <right/>
       <top style="thin">
+        <color theme="6" tint="0.59996337778862885"/>
+      </top>
+      <bottom style="thin">
+        <color theme="6" tint="0.59996337778862885"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="8" tint="0.59996337778862885"/>
+      </top>
+      <bottom style="thin">
+        <color theme="8" tint="0.59996337778862885"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
         <color theme="0" tint="-4.9989318521683403E-2"/>
       </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="1" tint="0.499984740745262"/>
-      </left>
-      <right style="thin">
-        <color theme="1" tint="0.499984740745262"/>
-      </right>
-      <top style="thin">
-        <color theme="1" tint="0.499984740745262"/>
-      </top>
-      <bottom style="thin">
-        <color theme="1" tint="0.499984740745262"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -567,7 +663,7 @@
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -620,22 +716,22 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="168" fontId="17" fillId="6" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="17" fillId="12" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="17" fillId="6" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="17" fillId="12" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="17" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="17" fillId="12" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -645,7 +741,22 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="6" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="15" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -678,15 +789,93 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="7" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="15" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="4" borderId="5" xfId="12" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="5" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="9" fontId="1" fillId="4" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="15" fillId="4" borderId="5" xfId="10" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="8" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="15" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="8" xfId="12" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="8" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="5" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="15" fillId="5" borderId="8" xfId="10" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="9" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="15" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="9" xfId="12" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="9" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="10" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="15" fillId="10" borderId="9" xfId="10" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="12" applyFont="1" applyBorder="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
@@ -699,55 +888,65 @@
     <xf numFmtId="165" fontId="15" fillId="0" borderId="0" xfId="10" applyFont="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="15" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="166" fontId="21" fillId="0" borderId="0" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="167" fontId="15" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="15" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="15" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="15" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" xfId="12" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="10" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="15" fillId="10" borderId="0" xfId="10" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="15" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="166" fontId="23" fillId="0" borderId="0" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="13">
     <cellStyle name="Date" xfId="10" xr:uid="{229918B6-DD13-4F5A-97B9-305F7E002AA3}"/>
@@ -764,7 +963,7 @@
     <cellStyle name="Título 3" xfId="8" builtinId="18" customBuiltin="1"/>
     <cellStyle name="zHiddenText" xfId="3" xr:uid="{26E66EE6-E33F-4D77-BAE4-0FB4F5BBF673}"/>
   </cellStyles>
-  <dxfs count="14">
+  <dxfs count="27">
     <dxf>
       <border>
         <left style="thin">
@@ -775,6 +974,182 @@
         </right>
         <vertical/>
         <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color theme="5"/>
+        </left>
+        <right style="thin">
+          <color theme="5"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -929,15 +1304,15 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="ToDoList" pivot="0" count="9" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="wholeTable" dxfId="13"/>
-      <tableStyleElement type="headerRow" dxfId="12"/>
-      <tableStyleElement type="totalRow" dxfId="11"/>
-      <tableStyleElement type="firstColumn" dxfId="10"/>
-      <tableStyleElement type="lastColumn" dxfId="9"/>
-      <tableStyleElement type="firstRowStripe" dxfId="8"/>
-      <tableStyleElement type="secondRowStripe" dxfId="7"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="6"/>
-      <tableStyleElement type="secondColumnStripe" dxfId="5"/>
+      <tableStyleElement type="wholeTable" dxfId="26"/>
+      <tableStyleElement type="headerRow" dxfId="25"/>
+      <tableStyleElement type="totalRow" dxfId="24"/>
+      <tableStyleElement type="firstColumn" dxfId="23"/>
+      <tableStyleElement type="lastColumn" dxfId="22"/>
+      <tableStyleElement type="firstRowStripe" dxfId="21"/>
+      <tableStyleElement type="secondRowStripe" dxfId="20"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="19"/>
+      <tableStyleElement type="secondColumnStripe" dxfId="18"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -1033,42 +1408,42 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Escala de grises">
+    <a:clrScheme name="TM16400962">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:srgbClr val="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:srgbClr val="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="000000"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="F8F8F8"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="DDDDDD"/>
+        <a:srgbClr val="6528F7"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="B2B2B2"/>
+        <a:srgbClr val="D800A6"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="969696"/>
+        <a:srgbClr val="7ECA9C"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="808080"/>
+        <a:srgbClr val="00ABB3"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5F5F5F"/>
+        <a:srgbClr val="FFE227"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="4D4D4D"/>
+        <a:srgbClr val="1363DF"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="5F5F5F"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="919191"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Custom 32">
@@ -1236,16 +1611,16 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BL21"/>
+  <dimension ref="A1:DI34"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="B1" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="ET1" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="DJ4" sqref="DJ4:IM31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.75" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="30" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="2.75" style="6" customWidth="1"/>
-    <col min="2" max="2" width="53.5" customWidth="1"/>
+    <col min="2" max="2" width="64.875" customWidth="1"/>
     <col min="3" max="3" width="16.75" customWidth="1"/>
     <col min="4" max="4" width="10.75" customWidth="1"/>
     <col min="5" max="5" width="10.75" style="2" customWidth="1"/>
@@ -1253,643 +1628,1101 @@
     <col min="7" max="7" width="2.75" customWidth="1"/>
     <col min="8" max="8" width="6" hidden="1" customWidth="1"/>
     <col min="9" max="14" width="2.75" customWidth="1"/>
-    <col min="15" max="15" width="4.75" customWidth="1"/>
-    <col min="16" max="65" width="2.75" customWidth="1"/>
+    <col min="15" max="15" width="6.5" customWidth="1"/>
+    <col min="16" max="63" width="2.75" customWidth="1"/>
+    <col min="64" max="64" width="4.875" customWidth="1"/>
+    <col min="65" max="65" width="2.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:64" ht="90" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:113" ht="90" customHeight="1">
       <c r="A1" s="7"/>
-      <c r="B1" s="61" t="s">
-        <v>19</v>
+      <c r="B1" s="96" t="s">
+        <v>0</v>
       </c>
       <c r="C1" s="11"/>
       <c r="D1" s="12"/>
       <c r="E1" s="13"/>
       <c r="F1" s="14"/>
       <c r="H1" s="1"/>
-      <c r="I1" s="69" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="64"/>
-      <c r="K1" s="64"/>
-      <c r="L1" s="64"/>
-      <c r="M1" s="64"/>
-      <c r="N1" s="64"/>
-      <c r="O1" s="64"/>
+      <c r="I1" s="90" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" s="101"/>
+      <c r="K1" s="101"/>
+      <c r="L1" s="101"/>
+      <c r="M1" s="101"/>
+      <c r="N1" s="101"/>
+      <c r="O1" s="101"/>
       <c r="P1" s="17"/>
-      <c r="Q1" s="68">
+      <c r="Q1" s="89">
         <f>DATE(2025,8,12)</f>
         <v>45881</v>
       </c>
-      <c r="R1" s="67"/>
-      <c r="S1" s="67"/>
-      <c r="T1" s="67"/>
-      <c r="U1" s="67"/>
-      <c r="V1" s="67"/>
-      <c r="W1" s="67"/>
-      <c r="X1" s="67"/>
-      <c r="Y1" s="67"/>
-      <c r="Z1" s="67"/>
+      <c r="R1" s="102"/>
+      <c r="S1" s="102"/>
+      <c r="T1" s="102"/>
+      <c r="U1" s="102"/>
+      <c r="V1" s="102"/>
+      <c r="W1" s="102"/>
+      <c r="X1" s="102"/>
+      <c r="Y1" s="102"/>
+      <c r="Z1" s="102"/>
     </row>
-    <row r="2" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="62" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" s="51"/>
+    <row r="2" spans="1:113" ht="30" customHeight="1">
+      <c r="B2" s="82"/>
+      <c r="C2" s="83"/>
       <c r="D2" s="15"/>
       <c r="E2" s="16"/>
       <c r="F2" s="15"/>
-      <c r="I2" s="65" t="s">
-        <v>8</v>
-      </c>
-      <c r="J2" s="63"/>
-      <c r="K2" s="63"/>
-      <c r="L2" s="63"/>
-      <c r="M2" s="63"/>
-      <c r="N2" s="63"/>
-      <c r="O2" s="63"/>
+      <c r="I2" s="90"/>
+      <c r="J2" s="101"/>
+      <c r="K2" s="101"/>
+      <c r="L2" s="101"/>
+      <c r="M2" s="101"/>
+      <c r="N2" s="101"/>
+      <c r="O2" s="101"/>
       <c r="P2" s="17"/>
-      <c r="Q2" s="66">
-        <v>1</v>
-      </c>
-      <c r="R2" s="67"/>
-      <c r="S2" s="67"/>
-      <c r="T2" s="67"/>
-      <c r="U2" s="67"/>
-      <c r="V2" s="67"/>
-      <c r="W2" s="67"/>
-      <c r="X2" s="67"/>
-      <c r="Y2" s="67"/>
-      <c r="Z2" s="67"/>
+      <c r="Q2" s="88"/>
+      <c r="R2" s="102"/>
+      <c r="S2" s="102"/>
+      <c r="T2" s="102"/>
+      <c r="U2" s="102"/>
+      <c r="V2" s="102"/>
+      <c r="W2" s="102"/>
+      <c r="X2" s="102"/>
+      <c r="Y2" s="102"/>
+      <c r="Z2" s="102"/>
     </row>
-    <row r="3" spans="1:64" s="19" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:113" s="19" customFormat="1" ht="30" customHeight="1">
       <c r="A3" s="6"/>
       <c r="B3" s="18"/>
       <c r="D3" s="20"/>
       <c r="E3" s="21"/>
     </row>
-    <row r="4" spans="1:64" s="19" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:113" s="19" customFormat="1" ht="30" customHeight="1">
       <c r="A4" s="7"/>
       <c r="B4" s="22"/>
       <c r="E4" s="23"/>
-      <c r="I4" s="60">
+      <c r="I4" s="100">
         <f>I5</f>
+        <v>45873</v>
+      </c>
+      <c r="J4" s="100"/>
+      <c r="K4" s="100"/>
+      <c r="L4" s="100"/>
+      <c r="M4" s="100"/>
+      <c r="N4" s="100"/>
+      <c r="O4" s="92"/>
+      <c r="P4" s="91">
+        <f>P5</f>
         <v>45880</v>
       </c>
-      <c r="J4" s="58"/>
-      <c r="K4" s="58"/>
-      <c r="L4" s="58"/>
-      <c r="M4" s="58"/>
-      <c r="N4" s="58"/>
-      <c r="O4" s="58"/>
-      <c r="P4" s="58">
-        <f>P5</f>
+      <c r="Q4" s="100"/>
+      <c r="R4" s="100"/>
+      <c r="S4" s="100"/>
+      <c r="T4" s="100"/>
+      <c r="U4" s="100"/>
+      <c r="V4" s="92"/>
+      <c r="W4" s="91">
+        <f>W5</f>
         <v>45887</v>
       </c>
-      <c r="Q4" s="58"/>
-      <c r="R4" s="58"/>
-      <c r="S4" s="58"/>
-      <c r="T4" s="58"/>
-      <c r="U4" s="58"/>
-      <c r="V4" s="58"/>
-      <c r="W4" s="58">
-        <f>W5</f>
+      <c r="X4" s="100"/>
+      <c r="Y4" s="100"/>
+      <c r="Z4" s="100"/>
+      <c r="AA4" s="100"/>
+      <c r="AB4" s="100"/>
+      <c r="AC4" s="92"/>
+      <c r="AD4" s="91">
+        <f>AD5</f>
         <v>45894</v>
       </c>
-      <c r="X4" s="58"/>
-      <c r="Y4" s="58"/>
-      <c r="Z4" s="58"/>
-      <c r="AA4" s="58"/>
-      <c r="AB4" s="58"/>
-      <c r="AC4" s="58"/>
-      <c r="AD4" s="58">
-        <f>AD5</f>
+      <c r="AE4" s="100"/>
+      <c r="AF4" s="100"/>
+      <c r="AG4" s="100"/>
+      <c r="AH4" s="100"/>
+      <c r="AI4" s="100"/>
+      <c r="AJ4" s="92"/>
+      <c r="AK4" s="91">
+        <f>AK5</f>
         <v>45901</v>
       </c>
-      <c r="AE4" s="58"/>
-      <c r="AF4" s="58"/>
-      <c r="AG4" s="58"/>
-      <c r="AH4" s="58"/>
-      <c r="AI4" s="58"/>
-      <c r="AJ4" s="58"/>
-      <c r="AK4" s="58">
-        <f>AK5</f>
+      <c r="AL4" s="100"/>
+      <c r="AM4" s="100"/>
+      <c r="AN4" s="100"/>
+      <c r="AO4" s="100"/>
+      <c r="AP4" s="100"/>
+      <c r="AQ4" s="92"/>
+      <c r="AR4" s="91">
+        <f>AR5</f>
         <v>45908</v>
       </c>
-      <c r="AL4" s="58"/>
-      <c r="AM4" s="58"/>
-      <c r="AN4" s="58"/>
-      <c r="AO4" s="58"/>
-      <c r="AP4" s="58"/>
-      <c r="AQ4" s="58"/>
-      <c r="AR4" s="58">
-        <f>AR5</f>
+      <c r="AS4" s="100"/>
+      <c r="AT4" s="100"/>
+      <c r="AU4" s="100"/>
+      <c r="AV4" s="100"/>
+      <c r="AW4" s="100"/>
+      <c r="AX4" s="92"/>
+      <c r="AY4" s="91">
+        <f>AY5</f>
         <v>45915</v>
       </c>
-      <c r="AS4" s="58"/>
-      <c r="AT4" s="58"/>
-      <c r="AU4" s="58"/>
-      <c r="AV4" s="58"/>
-      <c r="AW4" s="58"/>
-      <c r="AX4" s="58"/>
-      <c r="AY4" s="58">
-        <f>AY5</f>
+      <c r="AZ4" s="100"/>
+      <c r="BA4" s="100"/>
+      <c r="BB4" s="100"/>
+      <c r="BC4" s="100"/>
+      <c r="BD4" s="100"/>
+      <c r="BE4" s="92"/>
+      <c r="BF4" s="91">
+        <f>BF5</f>
         <v>45922</v>
       </c>
-      <c r="AZ4" s="58"/>
-      <c r="BA4" s="58"/>
-      <c r="BB4" s="58"/>
-      <c r="BC4" s="58"/>
-      <c r="BD4" s="58"/>
-      <c r="BE4" s="58"/>
-      <c r="BF4" s="58">
-        <f>BF5</f>
+      <c r="BG4" s="100"/>
+      <c r="BH4" s="100"/>
+      <c r="BI4" s="100"/>
+      <c r="BJ4" s="100"/>
+      <c r="BK4" s="100"/>
+      <c r="BL4" s="92"/>
+      <c r="BM4" s="91">
+        <f t="shared" ref="BM4" si="0">BM5</f>
         <v>45929</v>
       </c>
-      <c r="BG4" s="58"/>
-      <c r="BH4" s="58"/>
-      <c r="BI4" s="58"/>
-      <c r="BJ4" s="58"/>
-      <c r="BK4" s="58"/>
-      <c r="BL4" s="59"/>
+      <c r="BN4" s="100"/>
+      <c r="BO4" s="100"/>
+      <c r="BP4" s="100"/>
+      <c r="BQ4" s="100"/>
+      <c r="BR4" s="100"/>
+      <c r="BS4" s="92"/>
+      <c r="BT4" s="91">
+        <f t="shared" ref="BT4" si="1">BT5</f>
+        <v>45936</v>
+      </c>
+      <c r="BU4" s="100"/>
+      <c r="BV4" s="100"/>
+      <c r="BW4" s="100"/>
+      <c r="BX4" s="100"/>
+      <c r="BY4" s="100"/>
+      <c r="BZ4" s="92"/>
+      <c r="CA4" s="91">
+        <f t="shared" ref="CA4" si="2">CA5</f>
+        <v>45943</v>
+      </c>
+      <c r="CB4" s="100"/>
+      <c r="CC4" s="100"/>
+      <c r="CD4" s="100"/>
+      <c r="CE4" s="100"/>
+      <c r="CF4" s="100"/>
+      <c r="CG4" s="92"/>
+      <c r="CH4" s="91">
+        <f t="shared" ref="CH4" si="3">CH5</f>
+        <v>45950</v>
+      </c>
+      <c r="CI4" s="100"/>
+      <c r="CJ4" s="100"/>
+      <c r="CK4" s="100"/>
+      <c r="CL4" s="100"/>
+      <c r="CM4" s="100"/>
+      <c r="CN4" s="92"/>
+      <c r="CO4" s="91">
+        <f t="shared" ref="CO4" si="4">CO5</f>
+        <v>45957</v>
+      </c>
+      <c r="CP4" s="100"/>
+      <c r="CQ4" s="100"/>
+      <c r="CR4" s="100"/>
+      <c r="CS4" s="100"/>
+      <c r="CT4" s="100"/>
+      <c r="CU4" s="92"/>
+      <c r="CV4" s="91">
+        <f t="shared" ref="CV4" si="5">CV5</f>
+        <v>45964</v>
+      </c>
+      <c r="CW4" s="100"/>
+      <c r="CX4" s="100"/>
+      <c r="CY4" s="100"/>
+      <c r="CZ4" s="100"/>
+      <c r="DA4" s="100"/>
+      <c r="DB4" s="92"/>
+      <c r="DC4" s="91">
+        <f t="shared" ref="DC4" si="6">DC5</f>
+        <v>45971</v>
+      </c>
+      <c r="DD4" s="100"/>
+      <c r="DE4" s="100"/>
+      <c r="DF4" s="100"/>
+      <c r="DG4" s="100"/>
+      <c r="DH4" s="100"/>
+      <c r="DI4" s="92"/>
     </row>
-    <row r="5" spans="1:64" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="52"/>
-      <c r="B5" s="53" t="s">
+    <row r="5" spans="1:113" s="19" customFormat="1" ht="15" customHeight="1">
+      <c r="A5" s="84"/>
+      <c r="B5" s="85" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="55" t="s">
+      <c r="C5" s="86" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="57" t="s">
+      <c r="D5" s="87" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="57" t="s">
+      <c r="E5" s="87" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="57" t="s">
+      <c r="F5" s="87" t="s">
         <v>6</v>
       </c>
       <c r="I5" s="24">
         <f>Project_Start-WEEKDAY(Project_Start,1)+2+7*(Display_Week-1)</f>
-        <v>45880</v>
+        <v>45873</v>
       </c>
       <c r="J5" s="24">
         <f>I5+1</f>
-        <v>45881</v>
+        <v>45874</v>
       </c>
       <c r="K5" s="24">
-        <f t="shared" ref="K5:AX5" si="0">J5+1</f>
-        <v>45882</v>
+        <f t="shared" ref="K5:AX5" si="7">J5+1</f>
+        <v>45875</v>
       </c>
       <c r="L5" s="24">
-        <f t="shared" si="0"/>
-        <v>45883</v>
+        <f t="shared" si="7"/>
+        <v>45876</v>
       </c>
       <c r="M5" s="24">
-        <f t="shared" si="0"/>
-        <v>45884</v>
+        <f t="shared" si="7"/>
+        <v>45877</v>
       </c>
       <c r="N5" s="24">
-        <f t="shared" si="0"/>
-        <v>45885</v>
+        <f t="shared" si="7"/>
+        <v>45878</v>
       </c>
       <c r="O5" s="25">
-        <f t="shared" si="0"/>
-        <v>45886</v>
+        <f t="shared" si="7"/>
+        <v>45879</v>
       </c>
       <c r="P5" s="26">
         <f>O5+1</f>
-        <v>45887</v>
+        <v>45880</v>
       </c>
       <c r="Q5" s="24">
         <f>P5+1</f>
-        <v>45888</v>
+        <v>45881</v>
       </c>
       <c r="R5" s="24">
-        <f t="shared" si="0"/>
-        <v>45889</v>
+        <f t="shared" si="7"/>
+        <v>45882</v>
       </c>
       <c r="S5" s="24">
-        <f t="shared" si="0"/>
-        <v>45890</v>
+        <f t="shared" si="7"/>
+        <v>45883</v>
       </c>
       <c r="T5" s="24">
-        <f t="shared" si="0"/>
-        <v>45891</v>
+        <f t="shared" si="7"/>
+        <v>45884</v>
       </c>
       <c r="U5" s="24">
-        <f t="shared" si="0"/>
-        <v>45892</v>
+        <f t="shared" si="7"/>
+        <v>45885</v>
       </c>
       <c r="V5" s="25">
-        <f t="shared" si="0"/>
-        <v>45893</v>
+        <f t="shared" si="7"/>
+        <v>45886</v>
       </c>
       <c r="W5" s="26">
         <f>V5+1</f>
-        <v>45894</v>
+        <v>45887</v>
       </c>
       <c r="X5" s="24">
         <f>W5+1</f>
-        <v>45895</v>
+        <v>45888</v>
       </c>
       <c r="Y5" s="24">
-        <f t="shared" si="0"/>
-        <v>45896</v>
+        <f t="shared" si="7"/>
+        <v>45889</v>
       </c>
       <c r="Z5" s="24">
-        <f t="shared" si="0"/>
-        <v>45897</v>
+        <f t="shared" si="7"/>
+        <v>45890</v>
       </c>
       <c r="AA5" s="24">
-        <f t="shared" si="0"/>
-        <v>45898</v>
+        <f t="shared" si="7"/>
+        <v>45891</v>
       </c>
       <c r="AB5" s="24">
-        <f t="shared" si="0"/>
-        <v>45899</v>
+        <f t="shared" si="7"/>
+        <v>45892</v>
       </c>
       <c r="AC5" s="25">
-        <f t="shared" si="0"/>
-        <v>45900</v>
+        <f t="shared" si="7"/>
+        <v>45893</v>
       </c>
       <c r="AD5" s="26">
         <f>AC5+1</f>
-        <v>45901</v>
+        <v>45894</v>
       </c>
       <c r="AE5" s="24">
         <f>AD5+1</f>
-        <v>45902</v>
+        <v>45895</v>
       </c>
       <c r="AF5" s="24">
-        <f t="shared" si="0"/>
-        <v>45903</v>
+        <f t="shared" si="7"/>
+        <v>45896</v>
       </c>
       <c r="AG5" s="24">
-        <f t="shared" si="0"/>
-        <v>45904</v>
+        <f t="shared" si="7"/>
+        <v>45897</v>
       </c>
       <c r="AH5" s="24">
-        <f t="shared" si="0"/>
-        <v>45905</v>
+        <f t="shared" si="7"/>
+        <v>45898</v>
       </c>
       <c r="AI5" s="24">
-        <f t="shared" si="0"/>
-        <v>45906</v>
+        <f t="shared" si="7"/>
+        <v>45899</v>
       </c>
       <c r="AJ5" s="25">
-        <f t="shared" si="0"/>
-        <v>45907</v>
+        <f t="shared" si="7"/>
+        <v>45900</v>
       </c>
       <c r="AK5" s="26">
         <f>AJ5+1</f>
-        <v>45908</v>
+        <v>45901</v>
       </c>
       <c r="AL5" s="24">
         <f>AK5+1</f>
-        <v>45909</v>
+        <v>45902</v>
       </c>
       <c r="AM5" s="24">
-        <f t="shared" si="0"/>
-        <v>45910</v>
+        <f t="shared" si="7"/>
+        <v>45903</v>
       </c>
       <c r="AN5" s="24">
-        <f t="shared" si="0"/>
-        <v>45911</v>
+        <f t="shared" si="7"/>
+        <v>45904</v>
       </c>
       <c r="AO5" s="24">
-        <f t="shared" si="0"/>
-        <v>45912</v>
+        <f t="shared" si="7"/>
+        <v>45905</v>
       </c>
       <c r="AP5" s="24">
-        <f t="shared" si="0"/>
-        <v>45913</v>
+        <f t="shared" si="7"/>
+        <v>45906</v>
       </c>
       <c r="AQ5" s="25">
-        <f t="shared" si="0"/>
-        <v>45914</v>
+        <f t="shared" si="7"/>
+        <v>45907</v>
       </c>
       <c r="AR5" s="26">
         <f>AQ5+1</f>
-        <v>45915</v>
+        <v>45908</v>
       </c>
       <c r="AS5" s="24">
         <f>AR5+1</f>
-        <v>45916</v>
+        <v>45909</v>
       </c>
       <c r="AT5" s="24">
-        <f t="shared" si="0"/>
-        <v>45917</v>
+        <f t="shared" si="7"/>
+        <v>45910</v>
       </c>
       <c r="AU5" s="24">
-        <f t="shared" si="0"/>
-        <v>45918</v>
+        <f t="shared" si="7"/>
+        <v>45911</v>
       </c>
       <c r="AV5" s="24">
-        <f t="shared" si="0"/>
-        <v>45919</v>
+        <f t="shared" si="7"/>
+        <v>45912</v>
       </c>
       <c r="AW5" s="24">
-        <f t="shared" si="0"/>
-        <v>45920</v>
+        <f t="shared" si="7"/>
+        <v>45913</v>
       </c>
       <c r="AX5" s="25">
-        <f t="shared" si="0"/>
-        <v>45921</v>
+        <f t="shared" si="7"/>
+        <v>45914</v>
       </c>
       <c r="AY5" s="26">
         <f>AX5+1</f>
-        <v>45922</v>
+        <v>45915</v>
       </c>
       <c r="AZ5" s="24">
         <f>AY5+1</f>
-        <v>45923</v>
+        <v>45916</v>
       </c>
       <c r="BA5" s="24">
-        <f t="shared" ref="BA5:BE5" si="1">AZ5+1</f>
-        <v>45924</v>
+        <f t="shared" ref="BA5:BE5" si="8">AZ5+1</f>
+        <v>45917</v>
       </c>
       <c r="BB5" s="24">
-        <f t="shared" si="1"/>
-        <v>45925</v>
+        <f t="shared" si="8"/>
+        <v>45918</v>
       </c>
       <c r="BC5" s="24">
-        <f t="shared" si="1"/>
-        <v>45926</v>
+        <f t="shared" si="8"/>
+        <v>45919</v>
       </c>
       <c r="BD5" s="24">
-        <f t="shared" si="1"/>
-        <v>45927</v>
+        <f t="shared" si="8"/>
+        <v>45920</v>
       </c>
       <c r="BE5" s="25">
-        <f t="shared" si="1"/>
-        <v>45928</v>
+        <f t="shared" si="8"/>
+        <v>45921</v>
       </c>
       <c r="BF5" s="26">
         <f>BE5+1</f>
-        <v>45929</v>
+        <v>45922</v>
       </c>
       <c r="BG5" s="24">
         <f>BF5+1</f>
+        <v>45923</v>
+      </c>
+      <c r="BH5" s="24">
+        <f t="shared" ref="BH5:BL5" si="9">BG5+1</f>
+        <v>45924</v>
+      </c>
+      <c r="BI5" s="24">
+        <f t="shared" si="9"/>
+        <v>45925</v>
+      </c>
+      <c r="BJ5" s="24">
+        <f t="shared" si="9"/>
+        <v>45926</v>
+      </c>
+      <c r="BK5" s="24">
+        <f t="shared" si="9"/>
+        <v>45927</v>
+      </c>
+      <c r="BL5" s="24">
+        <f t="shared" si="9"/>
+        <v>45928</v>
+      </c>
+      <c r="BM5" s="24">
+        <f t="shared" ref="BM5" si="10">BL5+1</f>
+        <v>45929</v>
+      </c>
+      <c r="BN5" s="24">
+        <f t="shared" ref="BN5" si="11">BM5+1</f>
         <v>45930</v>
       </c>
-      <c r="BH5" s="24">
-        <f t="shared" ref="BH5:BL5" si="2">BG5+1</f>
+      <c r="BO5" s="24">
+        <f t="shared" ref="BO5" si="12">BN5+1</f>
         <v>45931</v>
       </c>
-      <c r="BI5" s="24">
-        <f t="shared" si="2"/>
+      <c r="BP5" s="24">
+        <f t="shared" ref="BP5" si="13">BO5+1</f>
         <v>45932</v>
       </c>
-      <c r="BJ5" s="24">
-        <f t="shared" si="2"/>
+      <c r="BQ5" s="24">
+        <f t="shared" ref="BQ5" si="14">BP5+1</f>
         <v>45933</v>
       </c>
-      <c r="BK5" s="24">
-        <f t="shared" si="2"/>
+      <c r="BR5" s="24">
+        <f t="shared" ref="BR5" si="15">BQ5+1</f>
         <v>45934</v>
       </c>
-      <c r="BL5" s="24">
-        <f t="shared" si="2"/>
+      <c r="BS5" s="24">
+        <f t="shared" ref="BS5" si="16">BR5+1</f>
         <v>45935</v>
       </c>
+      <c r="BT5" s="24">
+        <f t="shared" ref="BT5" si="17">BS5+1</f>
+        <v>45936</v>
+      </c>
+      <c r="BU5" s="24">
+        <f t="shared" ref="BU5" si="18">BT5+1</f>
+        <v>45937</v>
+      </c>
+      <c r="BV5" s="24">
+        <f t="shared" ref="BV5" si="19">BU5+1</f>
+        <v>45938</v>
+      </c>
+      <c r="BW5" s="24">
+        <f t="shared" ref="BW5" si="20">BV5+1</f>
+        <v>45939</v>
+      </c>
+      <c r="BX5" s="24">
+        <f t="shared" ref="BX5" si="21">BW5+1</f>
+        <v>45940</v>
+      </c>
+      <c r="BY5" s="24">
+        <f t="shared" ref="BY5" si="22">BX5+1</f>
+        <v>45941</v>
+      </c>
+      <c r="BZ5" s="24">
+        <f t="shared" ref="BZ5" si="23">BY5+1</f>
+        <v>45942</v>
+      </c>
+      <c r="CA5" s="24">
+        <f t="shared" ref="CA5" si="24">BZ5+1</f>
+        <v>45943</v>
+      </c>
+      <c r="CB5" s="24">
+        <f t="shared" ref="CB5" si="25">CA5+1</f>
+        <v>45944</v>
+      </c>
+      <c r="CC5" s="24">
+        <f t="shared" ref="CC5" si="26">CB5+1</f>
+        <v>45945</v>
+      </c>
+      <c r="CD5" s="24">
+        <f t="shared" ref="CD5" si="27">CC5+1</f>
+        <v>45946</v>
+      </c>
+      <c r="CE5" s="24">
+        <f t="shared" ref="CE5" si="28">CD5+1</f>
+        <v>45947</v>
+      </c>
+      <c r="CF5" s="24">
+        <f t="shared" ref="CF5" si="29">CE5+1</f>
+        <v>45948</v>
+      </c>
+      <c r="CG5" s="24">
+        <f t="shared" ref="CG5" si="30">CF5+1</f>
+        <v>45949</v>
+      </c>
+      <c r="CH5" s="24">
+        <f t="shared" ref="CH5" si="31">CG5+1</f>
+        <v>45950</v>
+      </c>
+      <c r="CI5" s="24">
+        <f t="shared" ref="CI5" si="32">CH5+1</f>
+        <v>45951</v>
+      </c>
+      <c r="CJ5" s="24">
+        <f t="shared" ref="CJ5" si="33">CI5+1</f>
+        <v>45952</v>
+      </c>
+      <c r="CK5" s="24">
+        <f t="shared" ref="CK5" si="34">CJ5+1</f>
+        <v>45953</v>
+      </c>
+      <c r="CL5" s="24">
+        <f t="shared" ref="CL5" si="35">CK5+1</f>
+        <v>45954</v>
+      </c>
+      <c r="CM5" s="24">
+        <f t="shared" ref="CM5" si="36">CL5+1</f>
+        <v>45955</v>
+      </c>
+      <c r="CN5" s="24">
+        <f t="shared" ref="CN5" si="37">CM5+1</f>
+        <v>45956</v>
+      </c>
+      <c r="CO5" s="24">
+        <f t="shared" ref="CO5" si="38">CN5+1</f>
+        <v>45957</v>
+      </c>
+      <c r="CP5" s="24">
+        <f t="shared" ref="CP5" si="39">CO5+1</f>
+        <v>45958</v>
+      </c>
+      <c r="CQ5" s="24">
+        <f t="shared" ref="CQ5" si="40">CP5+1</f>
+        <v>45959</v>
+      </c>
+      <c r="CR5" s="24">
+        <f t="shared" ref="CR5" si="41">CQ5+1</f>
+        <v>45960</v>
+      </c>
+      <c r="CS5" s="24">
+        <f t="shared" ref="CS5" si="42">CR5+1</f>
+        <v>45961</v>
+      </c>
+      <c r="CT5" s="24">
+        <f t="shared" ref="CT5" si="43">CS5+1</f>
+        <v>45962</v>
+      </c>
+      <c r="CU5" s="24">
+        <f t="shared" ref="CU5" si="44">CT5+1</f>
+        <v>45963</v>
+      </c>
+      <c r="CV5" s="24">
+        <f t="shared" ref="CV5" si="45">CU5+1</f>
+        <v>45964</v>
+      </c>
+      <c r="CW5" s="24">
+        <f t="shared" ref="CW5" si="46">CV5+1</f>
+        <v>45965</v>
+      </c>
+      <c r="CX5" s="24">
+        <f t="shared" ref="CX5" si="47">CW5+1</f>
+        <v>45966</v>
+      </c>
+      <c r="CY5" s="24">
+        <f t="shared" ref="CY5" si="48">CX5+1</f>
+        <v>45967</v>
+      </c>
+      <c r="CZ5" s="24">
+        <f t="shared" ref="CZ5" si="49">CY5+1</f>
+        <v>45968</v>
+      </c>
+      <c r="DA5" s="24">
+        <f t="shared" ref="DA5" si="50">CZ5+1</f>
+        <v>45969</v>
+      </c>
+      <c r="DB5" s="24">
+        <f t="shared" ref="DB5" si="51">DA5+1</f>
+        <v>45970</v>
+      </c>
+      <c r="DC5" s="24">
+        <f t="shared" ref="DC5" si="52">DB5+1</f>
+        <v>45971</v>
+      </c>
+      <c r="DD5" s="24">
+        <f t="shared" ref="DD5" si="53">DC5+1</f>
+        <v>45972</v>
+      </c>
+      <c r="DE5" s="24">
+        <f t="shared" ref="DE5" si="54">DD5+1</f>
+        <v>45973</v>
+      </c>
+      <c r="DF5" s="24">
+        <f t="shared" ref="DF5" si="55">DE5+1</f>
+        <v>45974</v>
+      </c>
+      <c r="DG5" s="24">
+        <f t="shared" ref="DG5" si="56">DF5+1</f>
+        <v>45975</v>
+      </c>
+      <c r="DH5" s="24">
+        <f t="shared" ref="DH5" si="57">DG5+1</f>
+        <v>45976</v>
+      </c>
+      <c r="DI5" s="24">
+        <f t="shared" ref="DI5" si="58">DH5+1</f>
+        <v>45977</v>
+      </c>
     </row>
-    <row r="6" spans="1:64" s="19" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="52"/>
-      <c r="B6" s="54"/>
-      <c r="C6" s="56"/>
-      <c r="D6" s="56"/>
-      <c r="E6" s="56"/>
-      <c r="F6" s="56"/>
+    <row r="6" spans="1:113" s="19" customFormat="1" ht="15" customHeight="1">
+      <c r="A6" s="84"/>
+      <c r="B6" s="99"/>
+      <c r="C6" s="98"/>
+      <c r="D6" s="97"/>
+      <c r="E6" s="97"/>
+      <c r="F6" s="97"/>
       <c r="I6" s="27" t="str">
-        <f t="shared" ref="I6:AN6" si="3">LEFT(TEXT(I5,"ddd"),1)</f>
+        <f t="shared" ref="I6:AN6" si="59">LEFT(TEXT(I5,"ddd"),1)</f>
         <v>l</v>
       </c>
       <c r="J6" s="28" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="59"/>
         <v>m</v>
       </c>
       <c r="K6" s="28" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="59"/>
         <v>m</v>
       </c>
       <c r="L6" s="28" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="59"/>
         <v>j</v>
       </c>
       <c r="M6" s="28" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="59"/>
         <v>v</v>
       </c>
       <c r="N6" s="28" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="59"/>
         <v>s</v>
       </c>
       <c r="O6" s="28" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="59"/>
         <v>d</v>
       </c>
       <c r="P6" s="28" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="59"/>
         <v>l</v>
       </c>
       <c r="Q6" s="28" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="59"/>
         <v>m</v>
       </c>
       <c r="R6" s="28" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="59"/>
         <v>m</v>
       </c>
       <c r="S6" s="28" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="59"/>
         <v>j</v>
       </c>
       <c r="T6" s="28" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="59"/>
         <v>v</v>
       </c>
       <c r="U6" s="28" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="59"/>
         <v>s</v>
       </c>
       <c r="V6" s="28" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="59"/>
         <v>d</v>
       </c>
       <c r="W6" s="28" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="59"/>
         <v>l</v>
       </c>
       <c r="X6" s="28" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="59"/>
         <v>m</v>
       </c>
       <c r="Y6" s="28" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="59"/>
         <v>m</v>
       </c>
       <c r="Z6" s="28" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="59"/>
         <v>j</v>
       </c>
       <c r="AA6" s="28" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="59"/>
         <v>v</v>
       </c>
       <c r="AB6" s="28" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="59"/>
         <v>s</v>
       </c>
       <c r="AC6" s="28" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="59"/>
         <v>d</v>
       </c>
       <c r="AD6" s="28" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="59"/>
         <v>l</v>
       </c>
       <c r="AE6" s="28" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="59"/>
         <v>m</v>
       </c>
       <c r="AF6" s="28" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="59"/>
         <v>m</v>
       </c>
       <c r="AG6" s="28" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="59"/>
         <v>j</v>
       </c>
       <c r="AH6" s="28" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="59"/>
         <v>v</v>
       </c>
       <c r="AI6" s="28" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="59"/>
         <v>s</v>
       </c>
       <c r="AJ6" s="28" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="59"/>
         <v>d</v>
       </c>
       <c r="AK6" s="28" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="59"/>
         <v>l</v>
       </c>
       <c r="AL6" s="28" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="59"/>
         <v>m</v>
       </c>
       <c r="AM6" s="28" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="59"/>
         <v>m</v>
       </c>
       <c r="AN6" s="28" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="59"/>
         <v>j</v>
       </c>
       <c r="AO6" s="28" t="str">
-        <f t="shared" ref="AO6:BL6" si="4">LEFT(TEXT(AO5,"ddd"),1)</f>
+        <f t="shared" ref="AO6:CZ6" si="60">LEFT(TEXT(AO5,"ddd"),1)</f>
         <v>v</v>
       </c>
       <c r="AP6" s="28" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="60"/>
         <v>s</v>
       </c>
       <c r="AQ6" s="28" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="60"/>
         <v>d</v>
       </c>
       <c r="AR6" s="28" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="60"/>
         <v>l</v>
       </c>
       <c r="AS6" s="28" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="60"/>
         <v>m</v>
       </c>
       <c r="AT6" s="28" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="60"/>
         <v>m</v>
       </c>
       <c r="AU6" s="28" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="60"/>
         <v>j</v>
       </c>
       <c r="AV6" s="28" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="60"/>
         <v>v</v>
       </c>
       <c r="AW6" s="28" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="60"/>
         <v>s</v>
       </c>
       <c r="AX6" s="28" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="60"/>
         <v>d</v>
       </c>
       <c r="AY6" s="28" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="60"/>
         <v>l</v>
       </c>
       <c r="AZ6" s="28" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="60"/>
         <v>m</v>
       </c>
       <c r="BA6" s="28" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="60"/>
         <v>m</v>
       </c>
       <c r="BB6" s="28" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="60"/>
         <v>j</v>
       </c>
       <c r="BC6" s="28" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="60"/>
         <v>v</v>
       </c>
       <c r="BD6" s="28" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="60"/>
         <v>s</v>
       </c>
       <c r="BE6" s="28" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="60"/>
         <v>d</v>
       </c>
       <c r="BF6" s="28" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="60"/>
         <v>l</v>
       </c>
       <c r="BG6" s="28" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="60"/>
         <v>m</v>
       </c>
       <c r="BH6" s="28" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="60"/>
         <v>m</v>
       </c>
       <c r="BI6" s="28" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="60"/>
         <v>j</v>
       </c>
       <c r="BJ6" s="28" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="60"/>
         <v>v</v>
       </c>
       <c r="BK6" s="28" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="60"/>
         <v>s</v>
       </c>
       <c r="BL6" s="29" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="60"/>
         <v>d</v>
       </c>
+      <c r="BM6" s="29" t="str">
+        <f t="shared" si="60"/>
+        <v>l</v>
+      </c>
+      <c r="BN6" s="29" t="str">
+        <f t="shared" si="60"/>
+        <v>m</v>
+      </c>
+      <c r="BO6" s="29" t="str">
+        <f t="shared" si="60"/>
+        <v>m</v>
+      </c>
+      <c r="BP6" s="29" t="str">
+        <f t="shared" si="60"/>
+        <v>j</v>
+      </c>
+      <c r="BQ6" s="29" t="str">
+        <f t="shared" si="60"/>
+        <v>v</v>
+      </c>
+      <c r="BR6" s="29" t="str">
+        <f t="shared" si="60"/>
+        <v>s</v>
+      </c>
+      <c r="BS6" s="29" t="str">
+        <f t="shared" si="60"/>
+        <v>d</v>
+      </c>
+      <c r="BT6" s="29" t="str">
+        <f t="shared" si="60"/>
+        <v>l</v>
+      </c>
+      <c r="BU6" s="29" t="str">
+        <f t="shared" si="60"/>
+        <v>m</v>
+      </c>
+      <c r="BV6" s="29" t="str">
+        <f t="shared" si="60"/>
+        <v>m</v>
+      </c>
+      <c r="BW6" s="29" t="str">
+        <f t="shared" si="60"/>
+        <v>j</v>
+      </c>
+      <c r="BX6" s="29" t="str">
+        <f t="shared" si="60"/>
+        <v>v</v>
+      </c>
+      <c r="BY6" s="29" t="str">
+        <f t="shared" si="60"/>
+        <v>s</v>
+      </c>
+      <c r="BZ6" s="29" t="str">
+        <f t="shared" si="60"/>
+        <v>d</v>
+      </c>
+      <c r="CA6" s="29" t="str">
+        <f t="shared" si="60"/>
+        <v>l</v>
+      </c>
+      <c r="CB6" s="29" t="str">
+        <f t="shared" si="60"/>
+        <v>m</v>
+      </c>
+      <c r="CC6" s="29" t="str">
+        <f t="shared" si="60"/>
+        <v>m</v>
+      </c>
+      <c r="CD6" s="29" t="str">
+        <f t="shared" si="60"/>
+        <v>j</v>
+      </c>
+      <c r="CE6" s="29" t="str">
+        <f t="shared" si="60"/>
+        <v>v</v>
+      </c>
+      <c r="CF6" s="29" t="str">
+        <f t="shared" si="60"/>
+        <v>s</v>
+      </c>
+      <c r="CG6" s="29" t="str">
+        <f t="shared" si="60"/>
+        <v>d</v>
+      </c>
+      <c r="CH6" s="29" t="str">
+        <f t="shared" si="60"/>
+        <v>l</v>
+      </c>
+      <c r="CI6" s="29" t="str">
+        <f t="shared" si="60"/>
+        <v>m</v>
+      </c>
+      <c r="CJ6" s="29" t="str">
+        <f t="shared" si="60"/>
+        <v>m</v>
+      </c>
+      <c r="CK6" s="29" t="str">
+        <f t="shared" si="60"/>
+        <v>j</v>
+      </c>
+      <c r="CL6" s="29" t="str">
+        <f t="shared" si="60"/>
+        <v>v</v>
+      </c>
+      <c r="CM6" s="29" t="str">
+        <f t="shared" si="60"/>
+        <v>s</v>
+      </c>
+      <c r="CN6" s="29" t="str">
+        <f t="shared" si="60"/>
+        <v>d</v>
+      </c>
+      <c r="CO6" s="29" t="str">
+        <f t="shared" si="60"/>
+        <v>l</v>
+      </c>
+      <c r="CP6" s="29" t="str">
+        <f t="shared" si="60"/>
+        <v>m</v>
+      </c>
+      <c r="CQ6" s="29" t="str">
+        <f t="shared" si="60"/>
+        <v>m</v>
+      </c>
+      <c r="CR6" s="29" t="str">
+        <f t="shared" si="60"/>
+        <v>j</v>
+      </c>
+      <c r="CS6" s="29" t="str">
+        <f t="shared" si="60"/>
+        <v>v</v>
+      </c>
+      <c r="CT6" s="29" t="str">
+        <f t="shared" si="60"/>
+        <v>s</v>
+      </c>
+      <c r="CU6" s="29" t="str">
+        <f t="shared" si="60"/>
+        <v>d</v>
+      </c>
+      <c r="CV6" s="29" t="str">
+        <f t="shared" si="60"/>
+        <v>l</v>
+      </c>
+      <c r="CW6" s="29" t="str">
+        <f t="shared" si="60"/>
+        <v>m</v>
+      </c>
+      <c r="CX6" s="29" t="str">
+        <f t="shared" si="60"/>
+        <v>m</v>
+      </c>
+      <c r="CY6" s="29" t="str">
+        <f t="shared" si="60"/>
+        <v>j</v>
+      </c>
+      <c r="CZ6" s="29" t="str">
+        <f t="shared" si="60"/>
+        <v>v</v>
+      </c>
+      <c r="DA6" s="29" t="str">
+        <f t="shared" ref="DA6:DI6" si="61">LEFT(TEXT(DA5,"ddd"),1)</f>
+        <v>s</v>
+      </c>
+      <c r="DB6" s="29" t="str">
+        <f t="shared" si="61"/>
+        <v>d</v>
+      </c>
+      <c r="DC6" s="29" t="str">
+        <f t="shared" si="61"/>
+        <v>l</v>
+      </c>
+      <c r="DD6" s="29" t="str">
+        <f t="shared" si="61"/>
+        <v>m</v>
+      </c>
+      <c r="DE6" s="29" t="str">
+        <f t="shared" si="61"/>
+        <v>m</v>
+      </c>
+      <c r="DF6" s="29" t="str">
+        <f t="shared" si="61"/>
+        <v>j</v>
+      </c>
+      <c r="DG6" s="29" t="str">
+        <f t="shared" si="61"/>
+        <v>v</v>
+      </c>
+      <c r="DH6" s="29" t="str">
+        <f t="shared" si="61"/>
+        <v>s</v>
+      </c>
+      <c r="DI6" s="29" t="str">
+        <f t="shared" si="61"/>
+        <v>d</v>
+      </c>
     </row>
-    <row r="7" spans="1:64" s="19" customFormat="1" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:113" s="19" customFormat="1" ht="30" hidden="1" customHeight="1">
       <c r="A7" s="6" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B7" s="30"/>
       <c r="C7" s="31"/>
@@ -1897,7 +2730,7 @@
       <c r="E7" s="30"/>
       <c r="F7" s="30"/>
       <c r="H7" s="19" t="str">
-        <f>IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
+        <f ca="1">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
         <v/>
       </c>
       <c r="I7" s="32"/>
@@ -1957,897 +2790,2880 @@
       <c r="BK7" s="32"/>
       <c r="BL7" s="32"/>
     </row>
-    <row r="8" spans="1:64" s="34" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:113" s="39" customFormat="1" ht="30" customHeight="1">
       <c r="A8" s="7"/>
-      <c r="B8" s="35" t="s">
+      <c r="B8" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="34"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="37"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="5" t="str">
+        <f t="shared" ref="H8:H31" ca="1" si="62">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
+        <v/>
+      </c>
+      <c r="I8" s="38"/>
+      <c r="J8" s="38"/>
+      <c r="K8" s="38"/>
+      <c r="L8" s="38"/>
+      <c r="M8" s="38"/>
+      <c r="N8" s="38"/>
+      <c r="O8" s="38"/>
+      <c r="P8" s="38"/>
+      <c r="Q8" s="38"/>
+      <c r="R8" s="38"/>
+      <c r="S8" s="38"/>
+      <c r="T8" s="38"/>
+      <c r="U8" s="38"/>
+      <c r="V8" s="38"/>
+      <c r="W8" s="38"/>
+      <c r="X8" s="38"/>
+      <c r="Y8" s="38"/>
+      <c r="Z8" s="38"/>
+      <c r="AA8" s="38"/>
+      <c r="AB8" s="38"/>
+      <c r="AC8" s="38"/>
+      <c r="AD8" s="38"/>
+      <c r="AE8" s="38"/>
+      <c r="AF8" s="38"/>
+      <c r="AG8" s="38"/>
+      <c r="AH8" s="38"/>
+      <c r="AI8" s="38"/>
+      <c r="AJ8" s="38"/>
+      <c r="AK8" s="38"/>
+      <c r="AL8" s="38"/>
+      <c r="AM8" s="38"/>
+      <c r="AN8" s="38"/>
+      <c r="AO8" s="38"/>
+      <c r="AP8" s="38"/>
+      <c r="AQ8" s="38"/>
+      <c r="AR8" s="38"/>
+      <c r="AS8" s="38"/>
+      <c r="AT8" s="38"/>
+      <c r="AU8" s="38"/>
+      <c r="AV8" s="38"/>
+      <c r="AW8" s="38"/>
+      <c r="AX8" s="38"/>
+      <c r="AY8" s="38"/>
+      <c r="AZ8" s="38"/>
+      <c r="BA8" s="38"/>
+      <c r="BB8" s="38"/>
+      <c r="BC8" s="38"/>
+      <c r="BD8" s="38"/>
+      <c r="BE8" s="38"/>
+      <c r="BF8" s="38"/>
+      <c r="BG8" s="38"/>
+      <c r="BH8" s="38"/>
+      <c r="BI8" s="38"/>
+      <c r="BJ8" s="38"/>
+      <c r="BK8" s="38"/>
+      <c r="BL8" s="38"/>
+    </row>
+    <row r="9" spans="1:113" s="39" customFormat="1" ht="30" customHeight="1">
+      <c r="A9" s="7"/>
+      <c r="B9" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="36" t="s">
+      <c r="C9" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="37">
+      <c r="D9" s="42">
         <v>0.5</v>
       </c>
-      <c r="E8" s="38">
+      <c r="E9" s="43">
         <f>Project_Start</f>
         <v>45881</v>
       </c>
-      <c r="F8" s="38">
-        <f>E8+13</f>
-        <v>45894</v>
-      </c>
-      <c r="G8" s="10"/>
-      <c r="H8" s="5">
-        <f t="shared" ref="H8:H18" si="5">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
-        <v>14</v>
-      </c>
-      <c r="I8" s="39"/>
-      <c r="J8" s="39"/>
-      <c r="K8" s="39"/>
-      <c r="L8" s="39"/>
-      <c r="M8" s="39"/>
-      <c r="N8" s="39"/>
-      <c r="O8" s="39"/>
-      <c r="P8" s="39"/>
-      <c r="Q8" s="39"/>
-      <c r="R8" s="39"/>
-      <c r="S8" s="39"/>
-      <c r="T8" s="39"/>
-      <c r="U8" s="39"/>
-      <c r="V8" s="39"/>
-      <c r="W8" s="39"/>
-      <c r="X8" s="39"/>
-      <c r="Y8" s="39"/>
-      <c r="Z8" s="39"/>
-      <c r="AA8" s="39"/>
-      <c r="AB8" s="39"/>
-      <c r="AC8" s="39"/>
-      <c r="AD8" s="39"/>
-      <c r="AE8" s="39"/>
-      <c r="AF8" s="39"/>
-      <c r="AG8" s="39"/>
-      <c r="AH8" s="39"/>
-      <c r="AI8" s="39"/>
-      <c r="AJ8" s="39"/>
-      <c r="AK8" s="39"/>
-      <c r="AL8" s="39"/>
-      <c r="AM8" s="39"/>
-      <c r="AN8" s="39"/>
-      <c r="AO8" s="39"/>
-      <c r="AP8" s="39"/>
-      <c r="AQ8" s="39"/>
-      <c r="AR8" s="39"/>
-      <c r="AS8" s="39"/>
-      <c r="AT8" s="39"/>
-      <c r="AU8" s="39"/>
-      <c r="AV8" s="39"/>
-      <c r="AW8" s="39"/>
-      <c r="AX8" s="39"/>
-      <c r="AY8" s="39"/>
-      <c r="AZ8" s="39"/>
-      <c r="BA8" s="39"/>
-      <c r="BB8" s="39"/>
-      <c r="BC8" s="39"/>
-      <c r="BD8" s="39"/>
-      <c r="BE8" s="39"/>
-      <c r="BF8" s="39"/>
-      <c r="BG8" s="39"/>
-      <c r="BH8" s="39"/>
-      <c r="BI8" s="39"/>
-      <c r="BJ8" s="39"/>
-      <c r="BK8" s="39"/>
-      <c r="BL8" s="39"/>
-    </row>
-    <row r="9" spans="1:64" s="34" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="7"/>
-      <c r="B9" s="40" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="41">
-        <v>0.6</v>
-      </c>
-      <c r="E9" s="42">
-        <f>F8</f>
-        <v>45894</v>
-      </c>
-      <c r="F9" s="42">
-        <f>E9+2</f>
-        <v>45896</v>
+      <c r="F9" s="43">
+        <f>E9+14</f>
+        <v>45895</v>
       </c>
       <c r="G9" s="10"/>
       <c r="H9" s="5">
-        <f t="shared" si="5"/>
-        <v>3</v>
-      </c>
-      <c r="I9" s="39"/>
-      <c r="J9" s="39"/>
-      <c r="K9" s="39"/>
-      <c r="L9" s="39"/>
-      <c r="M9" s="39"/>
-      <c r="N9" s="39"/>
-      <c r="O9" s="39"/>
-      <c r="P9" s="39"/>
-      <c r="Q9" s="39"/>
-      <c r="R9" s="39"/>
-      <c r="S9" s="39"/>
-      <c r="T9" s="39"/>
-      <c r="U9" s="43"/>
-      <c r="V9" s="43"/>
-      <c r="W9" s="39"/>
-      <c r="X9" s="39"/>
-      <c r="Y9" s="39"/>
-      <c r="Z9" s="39"/>
-      <c r="AA9" s="39"/>
-      <c r="AB9" s="39"/>
-      <c r="AC9" s="39"/>
-      <c r="AD9" s="39"/>
-      <c r="AE9" s="39"/>
-      <c r="AF9" s="39"/>
-      <c r="AG9" s="39"/>
-      <c r="AH9" s="39"/>
-      <c r="AI9" s="39"/>
-      <c r="AJ9" s="39"/>
-      <c r="AK9" s="39"/>
-      <c r="AL9" s="39"/>
-      <c r="AM9" s="39"/>
-      <c r="AN9" s="39"/>
-      <c r="AO9" s="39"/>
-      <c r="AP9" s="39"/>
-      <c r="AQ9" s="39"/>
-      <c r="AR9" s="39"/>
-      <c r="AS9" s="39"/>
-      <c r="AT9" s="39"/>
-      <c r="AU9" s="39"/>
-      <c r="AV9" s="39"/>
-      <c r="AW9" s="39"/>
-      <c r="AX9" s="39"/>
-      <c r="AY9" s="39"/>
-      <c r="AZ9" s="39"/>
-      <c r="BA9" s="39"/>
-      <c r="BB9" s="39"/>
-      <c r="BC9" s="39"/>
-      <c r="BD9" s="39"/>
-      <c r="BE9" s="39"/>
-      <c r="BF9" s="39"/>
-      <c r="BG9" s="39"/>
-      <c r="BH9" s="39"/>
-      <c r="BI9" s="39"/>
-      <c r="BJ9" s="39"/>
-      <c r="BK9" s="39"/>
-      <c r="BL9" s="39"/>
+        <f t="shared" ca="1" si="62"/>
+        <v>15</v>
+      </c>
+      <c r="I9" s="44"/>
+      <c r="J9" s="44"/>
+      <c r="K9" s="44"/>
+      <c r="L9" s="44"/>
+      <c r="M9" s="44"/>
+      <c r="N9" s="44"/>
+      <c r="O9" s="44"/>
+      <c r="P9" s="44"/>
+      <c r="Q9" s="44"/>
+      <c r="R9" s="44"/>
+      <c r="S9" s="44"/>
+      <c r="T9" s="44"/>
+      <c r="U9" s="44"/>
+      <c r="V9" s="44"/>
+      <c r="W9" s="44"/>
+      <c r="X9" s="44"/>
+      <c r="Y9" s="44"/>
+      <c r="Z9" s="44"/>
+      <c r="AA9" s="44"/>
+      <c r="AB9" s="44"/>
+      <c r="AC9" s="44"/>
+      <c r="AD9" s="44"/>
+      <c r="AE9" s="44"/>
+      <c r="AF9" s="44"/>
+      <c r="AG9" s="44"/>
+      <c r="AH9" s="44"/>
+      <c r="AI9" s="44"/>
+      <c r="AJ9" s="44"/>
+      <c r="AK9" s="44"/>
+      <c r="AL9" s="44"/>
+      <c r="AM9" s="44"/>
+      <c r="AN9" s="44"/>
+      <c r="AO9" s="44"/>
+      <c r="AP9" s="44"/>
+      <c r="AQ9" s="44"/>
+      <c r="AR9" s="44"/>
+      <c r="AS9" s="44"/>
+      <c r="AT9" s="44"/>
+      <c r="AU9" s="44"/>
+      <c r="AV9" s="44"/>
+      <c r="AW9" s="44"/>
+      <c r="AX9" s="44"/>
+      <c r="AY9" s="44"/>
+      <c r="AZ9" s="44"/>
+      <c r="BA9" s="44"/>
+      <c r="BB9" s="44"/>
+      <c r="BC9" s="44"/>
+      <c r="BD9" s="44"/>
+      <c r="BE9" s="44"/>
+      <c r="BF9" s="44"/>
+      <c r="BG9" s="44"/>
+      <c r="BH9" s="44"/>
+      <c r="BI9" s="44"/>
+      <c r="BJ9" s="44"/>
+      <c r="BK9" s="44"/>
+      <c r="BL9" s="44"/>
+      <c r="BM9" s="44"/>
+      <c r="BN9" s="44"/>
+      <c r="BO9" s="44"/>
+      <c r="BP9" s="44"/>
+      <c r="BQ9" s="44"/>
+      <c r="BR9" s="44"/>
+      <c r="BS9" s="44"/>
+      <c r="BT9" s="44"/>
+      <c r="BU9" s="44"/>
+      <c r="BV9" s="44"/>
+      <c r="BW9" s="44"/>
+      <c r="BX9" s="44"/>
+      <c r="BY9" s="44"/>
+      <c r="BZ9" s="44"/>
+      <c r="CA9" s="44"/>
+      <c r="CB9" s="44"/>
+      <c r="CC9" s="44"/>
+      <c r="CD9" s="44"/>
+      <c r="CE9" s="44"/>
+      <c r="CF9" s="44"/>
+      <c r="CG9" s="44"/>
+      <c r="CH9" s="44"/>
+      <c r="CI9" s="44"/>
+      <c r="CJ9" s="44"/>
+      <c r="CK9" s="44"/>
+      <c r="CL9" s="44"/>
+      <c r="CM9" s="44"/>
+      <c r="CN9" s="44"/>
+      <c r="CO9" s="44"/>
+      <c r="CP9" s="44"/>
+      <c r="CQ9" s="44"/>
+      <c r="CR9" s="44"/>
+      <c r="CS9" s="44"/>
+      <c r="CT9" s="44"/>
+      <c r="CU9" s="44"/>
+      <c r="CV9" s="44"/>
+      <c r="CW9" s="44"/>
+      <c r="CX9" s="44"/>
+      <c r="CY9" s="44"/>
+      <c r="CZ9" s="44"/>
+      <c r="DA9" s="44"/>
+      <c r="DB9" s="44"/>
+      <c r="DC9" s="44"/>
+      <c r="DD9" s="44"/>
+      <c r="DE9" s="44"/>
+      <c r="DF9" s="44"/>
+      <c r="DG9" s="44"/>
+      <c r="DH9" s="44"/>
+      <c r="DI9" s="44"/>
     </row>
-    <row r="10" spans="1:64" s="34" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="6"/>
-      <c r="B10" s="40" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="36" t="s">
+    <row r="10" spans="1:113" s="39" customFormat="1" ht="30" customHeight="1">
+      <c r="A10" s="7"/>
+      <c r="B10" s="45" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="41">
-        <v>0.5</v>
-      </c>
-      <c r="E10" s="42">
+      <c r="D10" s="46">
+        <v>0.6</v>
+      </c>
+      <c r="E10" s="47">
         <f>F9</f>
-        <v>45896</v>
-      </c>
-      <c r="F10" s="42">
-        <f>E10+4</f>
-        <v>45900</v>
+        <v>45895</v>
+      </c>
+      <c r="F10" s="47">
+        <f>E10+7</f>
+        <v>45902</v>
       </c>
       <c r="G10" s="10"/>
       <c r="H10" s="5">
-        <f t="shared" si="5"/>
-        <v>5</v>
-      </c>
-      <c r="I10" s="39"/>
-      <c r="J10" s="39"/>
-      <c r="K10" s="39"/>
-      <c r="L10" s="39"/>
-      <c r="M10" s="39"/>
-      <c r="N10" s="39"/>
-      <c r="O10" s="39"/>
-      <c r="P10" s="39"/>
-      <c r="Q10" s="39"/>
-      <c r="R10" s="39"/>
-      <c r="S10" s="39"/>
-      <c r="T10" s="39"/>
-      <c r="U10" s="39"/>
-      <c r="V10" s="39"/>
-      <c r="W10" s="39"/>
-      <c r="X10" s="39"/>
-      <c r="Y10" s="39"/>
-      <c r="Z10" s="39"/>
-      <c r="AA10" s="39"/>
-      <c r="AB10" s="39"/>
-      <c r="AC10" s="39"/>
-      <c r="AD10" s="39"/>
-      <c r="AE10" s="39"/>
-      <c r="AF10" s="39"/>
-      <c r="AG10" s="39"/>
-      <c r="AH10" s="39"/>
-      <c r="AI10" s="39"/>
-      <c r="AJ10" s="39"/>
-      <c r="AK10" s="39"/>
-      <c r="AL10" s="39"/>
-      <c r="AM10" s="39"/>
-      <c r="AN10" s="39"/>
-      <c r="AO10" s="39"/>
-      <c r="AP10" s="39"/>
-      <c r="AQ10" s="39"/>
-      <c r="AR10" s="39"/>
-      <c r="AS10" s="39"/>
-      <c r="AT10" s="39"/>
-      <c r="AU10" s="39"/>
-      <c r="AV10" s="39"/>
-      <c r="AW10" s="39"/>
-      <c r="AX10" s="39"/>
-      <c r="AY10" s="39"/>
-      <c r="AZ10" s="39"/>
-      <c r="BA10" s="39"/>
-      <c r="BB10" s="39"/>
-      <c r="BC10" s="39"/>
-      <c r="BD10" s="39"/>
-      <c r="BE10" s="39"/>
-      <c r="BF10" s="39"/>
-      <c r="BG10" s="39"/>
-      <c r="BH10" s="39"/>
-      <c r="BI10" s="39"/>
-      <c r="BJ10" s="39"/>
-      <c r="BK10" s="39"/>
-      <c r="BL10" s="39"/>
+        <f t="shared" ca="1" si="62"/>
+        <v>8</v>
+      </c>
+      <c r="I10" s="44"/>
+      <c r="J10" s="44"/>
+      <c r="K10" s="44"/>
+      <c r="L10" s="44"/>
+      <c r="M10" s="44"/>
+      <c r="N10" s="44"/>
+      <c r="O10" s="44"/>
+      <c r="P10" s="44"/>
+      <c r="Q10" s="44"/>
+      <c r="R10" s="44"/>
+      <c r="S10" s="44"/>
+      <c r="T10" s="44"/>
+      <c r="U10" s="48"/>
+      <c r="V10" s="48"/>
+      <c r="W10" s="44"/>
+      <c r="X10" s="44"/>
+      <c r="Y10" s="44"/>
+      <c r="Z10" s="44"/>
+      <c r="AA10" s="44"/>
+      <c r="AB10" s="44"/>
+      <c r="AC10" s="44"/>
+      <c r="AD10" s="44"/>
+      <c r="AE10" s="44"/>
+      <c r="AF10" s="44"/>
+      <c r="AG10" s="44"/>
+      <c r="AH10" s="44"/>
+      <c r="AI10" s="44"/>
+      <c r="AJ10" s="44"/>
+      <c r="AK10" s="44"/>
+      <c r="AL10" s="44"/>
+      <c r="AM10" s="44"/>
+      <c r="AN10" s="44"/>
+      <c r="AO10" s="44"/>
+      <c r="AP10" s="44"/>
+      <c r="AQ10" s="44"/>
+      <c r="AR10" s="44"/>
+      <c r="AS10" s="44"/>
+      <c r="AT10" s="44"/>
+      <c r="AU10" s="44"/>
+      <c r="AV10" s="44"/>
+      <c r="AW10" s="44"/>
+      <c r="AX10" s="44"/>
+      <c r="AY10" s="44"/>
+      <c r="AZ10" s="44"/>
+      <c r="BA10" s="44"/>
+      <c r="BB10" s="44"/>
+      <c r="BC10" s="44"/>
+      <c r="BD10" s="44"/>
+      <c r="BE10" s="44"/>
+      <c r="BF10" s="44"/>
+      <c r="BG10" s="44"/>
+      <c r="BH10" s="44"/>
+      <c r="BI10" s="44"/>
+      <c r="BJ10" s="44"/>
+      <c r="BK10" s="44"/>
+      <c r="BL10" s="44"/>
+      <c r="BM10" s="44"/>
+      <c r="BN10" s="44"/>
+      <c r="BO10" s="44"/>
+      <c r="BP10" s="44"/>
+      <c r="BQ10" s="44"/>
+      <c r="BR10" s="44"/>
+      <c r="BS10" s="44"/>
+      <c r="BT10" s="44"/>
+      <c r="BU10" s="44"/>
+      <c r="BV10" s="44"/>
+      <c r="BW10" s="44"/>
+      <c r="BX10" s="44"/>
+      <c r="BY10" s="44"/>
+      <c r="BZ10" s="44"/>
+      <c r="CA10" s="44"/>
+      <c r="CB10" s="44"/>
+      <c r="CC10" s="44"/>
+      <c r="CD10" s="44"/>
+      <c r="CE10" s="44"/>
+      <c r="CF10" s="44"/>
+      <c r="CG10" s="44"/>
+      <c r="CH10" s="44"/>
+      <c r="CI10" s="44"/>
+      <c r="CJ10" s="44"/>
+      <c r="CK10" s="44"/>
+      <c r="CL10" s="44"/>
+      <c r="CM10" s="44"/>
+      <c r="CN10" s="44"/>
+      <c r="CO10" s="44"/>
+      <c r="CP10" s="44"/>
+      <c r="CQ10" s="44"/>
+      <c r="CR10" s="44"/>
+      <c r="CS10" s="44"/>
+      <c r="CT10" s="44"/>
+      <c r="CU10" s="44"/>
+      <c r="CV10" s="44"/>
+      <c r="CW10" s="44"/>
+      <c r="CX10" s="44"/>
+      <c r="CY10" s="44"/>
+      <c r="CZ10" s="44"/>
+      <c r="DA10" s="44"/>
+      <c r="DB10" s="44"/>
+      <c r="DC10" s="44"/>
+      <c r="DD10" s="44"/>
+      <c r="DE10" s="44"/>
+      <c r="DF10" s="44"/>
+      <c r="DG10" s="44"/>
+      <c r="DH10" s="44"/>
+      <c r="DI10" s="44"/>
     </row>
-    <row r="11" spans="1:64" s="34" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:113" s="39" customFormat="1" ht="30" customHeight="1">
       <c r="A11" s="6"/>
-      <c r="B11" s="40" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="36" t="s">
+      <c r="B11" s="45" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="41">
-        <v>0.25</v>
-      </c>
-      <c r="E11" s="42">
+      <c r="D11" s="46">
+        <v>0.5</v>
+      </c>
+      <c r="E11" s="47">
         <f>F10</f>
-        <v>45900</v>
-      </c>
-      <c r="F11" s="42">
-        <f>E11+5</f>
-        <v>45905</v>
+        <v>45902</v>
+      </c>
+      <c r="F11" s="47">
+        <f>E11+7</f>
+        <v>45909</v>
       </c>
       <c r="G11" s="10"/>
       <c r="H11" s="5">
-        <f t="shared" si="5"/>
-        <v>6</v>
-      </c>
-      <c r="I11" s="39"/>
-      <c r="J11" s="39"/>
-      <c r="K11" s="39"/>
-      <c r="L11" s="39"/>
-      <c r="M11" s="39"/>
-      <c r="N11" s="39"/>
-      <c r="O11" s="39"/>
-      <c r="P11" s="39"/>
-      <c r="Q11" s="39"/>
-      <c r="R11" s="39"/>
-      <c r="S11" s="39"/>
-      <c r="T11" s="39"/>
-      <c r="U11" s="39"/>
-      <c r="V11" s="39"/>
-      <c r="W11" s="39"/>
-      <c r="X11" s="39"/>
-      <c r="Y11" s="43"/>
-      <c r="Z11" s="39"/>
-      <c r="AA11" s="39"/>
-      <c r="AB11" s="39"/>
-      <c r="AC11" s="39"/>
-      <c r="AD11" s="39"/>
-      <c r="AE11" s="39"/>
-      <c r="AF11" s="39"/>
-      <c r="AG11" s="39"/>
-      <c r="AH11" s="39"/>
-      <c r="AI11" s="39"/>
-      <c r="AJ11" s="39"/>
-      <c r="AK11" s="39"/>
-      <c r="AL11" s="39"/>
-      <c r="AM11" s="39"/>
-      <c r="AN11" s="39"/>
-      <c r="AO11" s="39"/>
-      <c r="AP11" s="39"/>
-      <c r="AQ11" s="39"/>
-      <c r="AR11" s="39"/>
-      <c r="AS11" s="39"/>
-      <c r="AT11" s="39"/>
-      <c r="AU11" s="39"/>
-      <c r="AV11" s="39"/>
-      <c r="AW11" s="39"/>
-      <c r="AX11" s="39"/>
-      <c r="AY11" s="39"/>
-      <c r="AZ11" s="39"/>
-      <c r="BA11" s="39"/>
-      <c r="BB11" s="39"/>
-      <c r="BC11" s="39"/>
-      <c r="BD11" s="39"/>
-      <c r="BE11" s="39"/>
-      <c r="BF11" s="39"/>
-      <c r="BG11" s="39"/>
-      <c r="BH11" s="39"/>
-      <c r="BI11" s="39"/>
-      <c r="BJ11" s="39"/>
-      <c r="BK11" s="39"/>
-      <c r="BL11" s="39"/>
+        <f t="shared" ca="1" si="62"/>
+        <v>8</v>
+      </c>
+      <c r="I11" s="44"/>
+      <c r="J11" s="44"/>
+      <c r="K11" s="44"/>
+      <c r="L11" s="44"/>
+      <c r="M11" s="44"/>
+      <c r="N11" s="44"/>
+      <c r="O11" s="44"/>
+      <c r="P11" s="44"/>
+      <c r="Q11" s="44"/>
+      <c r="R11" s="44"/>
+      <c r="S11" s="44"/>
+      <c r="T11" s="44"/>
+      <c r="U11" s="44"/>
+      <c r="V11" s="44"/>
+      <c r="W11" s="44"/>
+      <c r="X11" s="44"/>
+      <c r="Y11" s="44"/>
+      <c r="Z11" s="44"/>
+      <c r="AA11" s="44"/>
+      <c r="AB11" s="44"/>
+      <c r="AC11" s="44"/>
+      <c r="AD11" s="44"/>
+      <c r="AE11" s="44"/>
+      <c r="AF11" s="44"/>
+      <c r="AG11" s="44"/>
+      <c r="AH11" s="44"/>
+      <c r="AI11" s="44"/>
+      <c r="AJ11" s="44"/>
+      <c r="AK11" s="44"/>
+      <c r="AL11" s="44"/>
+      <c r="AM11" s="44"/>
+      <c r="AN11" s="44"/>
+      <c r="AO11" s="44"/>
+      <c r="AP11" s="44"/>
+      <c r="AQ11" s="44"/>
+      <c r="AR11" s="44"/>
+      <c r="AS11" s="44"/>
+      <c r="AT11" s="44"/>
+      <c r="AU11" s="44"/>
+      <c r="AV11" s="44"/>
+      <c r="AW11" s="44"/>
+      <c r="AX11" s="44"/>
+      <c r="AY11" s="44"/>
+      <c r="AZ11" s="44"/>
+      <c r="BA11" s="44"/>
+      <c r="BB11" s="44"/>
+      <c r="BC11" s="44"/>
+      <c r="BD11" s="44"/>
+      <c r="BE11" s="44"/>
+      <c r="BF11" s="44"/>
+      <c r="BG11" s="44"/>
+      <c r="BH11" s="44"/>
+      <c r="BI11" s="44"/>
+      <c r="BJ11" s="44"/>
+      <c r="BK11" s="44"/>
+      <c r="BL11" s="44"/>
+      <c r="BM11" s="44"/>
+      <c r="BN11" s="44"/>
+      <c r="BO11" s="44"/>
+      <c r="BP11" s="44"/>
+      <c r="BQ11" s="44"/>
+      <c r="BR11" s="44"/>
+      <c r="BS11" s="44"/>
+      <c r="BT11" s="44"/>
+      <c r="BU11" s="44"/>
+      <c r="BV11" s="44"/>
+      <c r="BW11" s="44"/>
+      <c r="BX11" s="44"/>
+      <c r="BY11" s="44"/>
+      <c r="BZ11" s="44"/>
+      <c r="CA11" s="44"/>
+      <c r="CB11" s="44"/>
+      <c r="CC11" s="44"/>
+      <c r="CD11" s="44"/>
+      <c r="CE11" s="44"/>
+      <c r="CF11" s="44"/>
+      <c r="CG11" s="44"/>
+      <c r="CH11" s="44"/>
+      <c r="CI11" s="44"/>
+      <c r="CJ11" s="44"/>
+      <c r="CK11" s="44"/>
+      <c r="CL11" s="44"/>
+      <c r="CM11" s="44"/>
+      <c r="CN11" s="44"/>
+      <c r="CO11" s="44"/>
+      <c r="CP11" s="44"/>
+      <c r="CQ11" s="44"/>
+      <c r="CR11" s="44"/>
+      <c r="CS11" s="44"/>
+      <c r="CT11" s="44"/>
+      <c r="CU11" s="44"/>
+      <c r="CV11" s="44"/>
+      <c r="CW11" s="44"/>
+      <c r="CX11" s="44"/>
+      <c r="CY11" s="44"/>
+      <c r="CZ11" s="44"/>
+      <c r="DA11" s="44"/>
+      <c r="DB11" s="44"/>
+      <c r="DC11" s="44"/>
+      <c r="DD11" s="44"/>
+      <c r="DE11" s="44"/>
+      <c r="DF11" s="44"/>
+      <c r="DG11" s="44"/>
+      <c r="DH11" s="44"/>
+      <c r="DI11" s="44"/>
     </row>
-    <row r="12" spans="1:64" s="34" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="6"/>
-      <c r="B12" s="40" t="s">
+    <row r="12" spans="1:113" s="39" customFormat="1" ht="30" customHeight="1">
+      <c r="A12" s="7"/>
+      <c r="B12" s="49" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="50"/>
+      <c r="D12" s="51"/>
+      <c r="E12" s="52"/>
+      <c r="F12" s="53"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="5" t="str">
+        <f t="shared" ca="1" si="62"/>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:113" s="39" customFormat="1" ht="30" customHeight="1">
+      <c r="A13" s="7"/>
+      <c r="B13" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="36" t="s">
+      <c r="C13" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="41">
+      <c r="D13" s="56">
         <v>0.5</v>
       </c>
-      <c r="E12" s="42">
-        <f>E9+1</f>
-        <v>45895</v>
-      </c>
-      <c r="F12" s="42">
-        <f>E12+2</f>
-        <v>45897</v>
-      </c>
-      <c r="G12" s="10"/>
-      <c r="H12" s="5">
-        <f t="shared" si="5"/>
-        <v>3</v>
-      </c>
-      <c r="I12" s="39"/>
-      <c r="J12" s="39"/>
-      <c r="K12" s="39"/>
-      <c r="L12" s="39"/>
-      <c r="M12" s="39"/>
-      <c r="N12" s="39"/>
-      <c r="O12" s="39"/>
-      <c r="P12" s="39"/>
-      <c r="Q12" s="39"/>
-      <c r="R12" s="39"/>
-      <c r="S12" s="39"/>
-      <c r="T12" s="39"/>
-      <c r="U12" s="39"/>
-      <c r="V12" s="39"/>
-      <c r="W12" s="39"/>
-      <c r="X12" s="39"/>
-      <c r="Y12" s="39"/>
-      <c r="Z12" s="39"/>
-      <c r="AA12" s="39"/>
-      <c r="AB12" s="39"/>
-      <c r="AC12" s="39"/>
-      <c r="AD12" s="39"/>
-      <c r="AE12" s="39"/>
-      <c r="AF12" s="39"/>
-      <c r="AG12" s="39"/>
-      <c r="AH12" s="39"/>
-      <c r="AI12" s="39"/>
-      <c r="AJ12" s="39"/>
-      <c r="AK12" s="39"/>
-      <c r="AL12" s="39"/>
-      <c r="AM12" s="39"/>
-      <c r="AN12" s="39"/>
-      <c r="AO12" s="39"/>
-      <c r="AP12" s="39"/>
-      <c r="AQ12" s="39"/>
-      <c r="AR12" s="39"/>
-      <c r="AS12" s="39"/>
-      <c r="AT12" s="39"/>
-      <c r="AU12" s="39"/>
-      <c r="AV12" s="39"/>
-      <c r="AW12" s="39"/>
-      <c r="AX12" s="39"/>
-      <c r="AY12" s="39"/>
-      <c r="AZ12" s="39"/>
-      <c r="BA12" s="39"/>
-      <c r="BB12" s="39"/>
-      <c r="BC12" s="39"/>
-      <c r="BD12" s="39"/>
-      <c r="BE12" s="39"/>
-      <c r="BF12" s="39"/>
-      <c r="BG12" s="39"/>
-      <c r="BH12" s="39"/>
-      <c r="BI12" s="39"/>
-      <c r="BJ12" s="39"/>
-      <c r="BK12" s="39"/>
-      <c r="BL12" s="39"/>
-    </row>
-    <row r="13" spans="1:64" s="34" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="7"/>
-      <c r="B13" s="44" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="D13" s="45">
-        <v>0.5</v>
-      </c>
-      <c r="E13" s="46">
-        <f>E12+1</f>
-        <v>45896</v>
-      </c>
-      <c r="F13" s="46">
+      <c r="E13" s="57">
+        <f>F11</f>
+        <v>45909</v>
+      </c>
+      <c r="F13" s="57">
         <f>E13+4</f>
-        <v>45900</v>
+        <v>45913</v>
       </c>
       <c r="G13" s="10"/>
       <c r="H13" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" ca="1" si="62"/>
         <v>5</v>
       </c>
-      <c r="I13" s="39"/>
-      <c r="J13" s="39"/>
-      <c r="K13" s="39"/>
-      <c r="L13" s="39"/>
-      <c r="M13" s="39"/>
-      <c r="N13" s="39"/>
-      <c r="O13" s="39"/>
-      <c r="P13" s="39"/>
-      <c r="Q13" s="39"/>
-      <c r="R13" s="39"/>
-      <c r="S13" s="39"/>
-      <c r="T13" s="39"/>
-      <c r="U13" s="39"/>
-      <c r="V13" s="39"/>
-      <c r="W13" s="39"/>
-      <c r="X13" s="39"/>
-      <c r="Y13" s="39"/>
-      <c r="Z13" s="39"/>
-      <c r="AA13" s="39"/>
-      <c r="AB13" s="39"/>
-      <c r="AC13" s="39"/>
-      <c r="AD13" s="39"/>
-      <c r="AE13" s="39"/>
-      <c r="AF13" s="39"/>
-      <c r="AG13" s="39"/>
-      <c r="AH13" s="39"/>
-      <c r="AI13" s="39"/>
-      <c r="AJ13" s="39"/>
-      <c r="AK13" s="39"/>
-      <c r="AL13" s="39"/>
-      <c r="AM13" s="39"/>
-      <c r="AN13" s="39"/>
-      <c r="AO13" s="39"/>
-      <c r="AP13" s="39"/>
-      <c r="AQ13" s="39"/>
-      <c r="AR13" s="39"/>
-      <c r="AS13" s="39"/>
-      <c r="AT13" s="39"/>
-      <c r="AU13" s="39"/>
-      <c r="AV13" s="39"/>
-      <c r="AW13" s="39"/>
-      <c r="AX13" s="39"/>
-      <c r="AY13" s="39"/>
-      <c r="AZ13" s="39"/>
-      <c r="BA13" s="39"/>
-      <c r="BB13" s="39"/>
-      <c r="BC13" s="39"/>
-      <c r="BD13" s="39"/>
-      <c r="BE13" s="39"/>
-      <c r="BF13" s="39"/>
-      <c r="BG13" s="39"/>
-      <c r="BH13" s="39"/>
-      <c r="BI13" s="39"/>
-      <c r="BJ13" s="39"/>
-      <c r="BK13" s="39"/>
-      <c r="BL13" s="39"/>
+      <c r="I13" s="44"/>
+      <c r="J13" s="44"/>
+      <c r="K13" s="44"/>
+      <c r="L13" s="44"/>
+      <c r="M13" s="44"/>
+      <c r="N13" s="44"/>
+      <c r="O13" s="44"/>
+      <c r="P13" s="44"/>
+      <c r="Q13" s="44"/>
+      <c r="R13" s="44"/>
+      <c r="S13" s="44"/>
+      <c r="T13" s="44"/>
+      <c r="U13" s="44"/>
+      <c r="V13" s="44"/>
+      <c r="W13" s="44"/>
+      <c r="X13" s="44"/>
+      <c r="Y13" s="44"/>
+      <c r="Z13" s="44"/>
+      <c r="AA13" s="44"/>
+      <c r="AB13" s="44"/>
+      <c r="AC13" s="44"/>
+      <c r="AD13" s="44"/>
+      <c r="AE13" s="44"/>
+      <c r="AF13" s="44"/>
+      <c r="AG13" s="44"/>
+      <c r="AH13" s="44"/>
+      <c r="AI13" s="44"/>
+      <c r="AJ13" s="44"/>
+      <c r="AK13" s="44"/>
+      <c r="AL13" s="44"/>
+      <c r="AM13" s="44"/>
+      <c r="AN13" s="44"/>
+      <c r="AO13" s="44"/>
+      <c r="AP13" s="44"/>
+      <c r="AQ13" s="44"/>
+      <c r="AR13" s="44"/>
+      <c r="AS13" s="44"/>
+      <c r="AT13" s="44"/>
+      <c r="AU13" s="44"/>
+      <c r="AV13" s="44"/>
+      <c r="AW13" s="44"/>
+      <c r="AX13" s="44"/>
+      <c r="AY13" s="44"/>
+      <c r="AZ13" s="44"/>
+      <c r="BA13" s="44"/>
+      <c r="BB13" s="44"/>
+      <c r="BC13" s="44"/>
+      <c r="BD13" s="44"/>
+      <c r="BE13" s="44"/>
+      <c r="BF13" s="44"/>
+      <c r="BG13" s="44"/>
+      <c r="BH13" s="44"/>
+      <c r="BI13" s="44"/>
+      <c r="BJ13" s="44"/>
+      <c r="BK13" s="44"/>
+      <c r="BL13" s="44"/>
+      <c r="BM13" s="44"/>
+      <c r="BN13" s="44"/>
+      <c r="BO13" s="44"/>
+      <c r="BP13" s="44"/>
+      <c r="BQ13" s="44"/>
+      <c r="BR13" s="44"/>
+      <c r="BS13" s="44"/>
+      <c r="BT13" s="44"/>
+      <c r="BU13" s="44"/>
+      <c r="BV13" s="44"/>
+      <c r="BW13" s="44"/>
+      <c r="BX13" s="44"/>
+      <c r="BY13" s="44"/>
+      <c r="BZ13" s="44"/>
+      <c r="CA13" s="44"/>
+      <c r="CB13" s="44"/>
+      <c r="CC13" s="44"/>
+      <c r="CD13" s="44"/>
+      <c r="CE13" s="44"/>
+      <c r="CF13" s="44"/>
+      <c r="CG13" s="44"/>
+      <c r="CH13" s="44"/>
+      <c r="CI13" s="44"/>
+      <c r="CJ13" s="44"/>
+      <c r="CK13" s="44"/>
+      <c r="CL13" s="44"/>
+      <c r="CM13" s="44"/>
+      <c r="CN13" s="44"/>
+      <c r="CO13" s="44"/>
+      <c r="CP13" s="44"/>
+      <c r="CQ13" s="44"/>
+      <c r="CR13" s="44"/>
+      <c r="CS13" s="44"/>
+      <c r="CT13" s="44"/>
+      <c r="CU13" s="44"/>
+      <c r="CV13" s="44"/>
+      <c r="CW13" s="44"/>
+      <c r="CX13" s="44"/>
+      <c r="CY13" s="44"/>
+      <c r="CZ13" s="44"/>
+      <c r="DA13" s="44"/>
+      <c r="DB13" s="44"/>
+      <c r="DC13" s="44"/>
+      <c r="DD13" s="44"/>
+      <c r="DE13" s="44"/>
+      <c r="DF13" s="44"/>
+      <c r="DG13" s="44"/>
+      <c r="DH13" s="44"/>
+      <c r="DI13" s="44"/>
     </row>
-    <row r="14" spans="1:64" s="34" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:113" s="39" customFormat="1" ht="30" customHeight="1">
       <c r="A14" s="6"/>
-      <c r="B14" s="44" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" s="36" t="s">
+      <c r="B14" s="54" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="45">
+      <c r="D14" s="56">
         <v>0.5</v>
       </c>
-      <c r="E14" s="46">
+      <c r="E14" s="57">
         <f>E13+2</f>
-        <v>45898</v>
-      </c>
-      <c r="F14" s="46">
-        <f>E14+5</f>
-        <v>45903</v>
+        <v>45911</v>
+      </c>
+      <c r="F14" s="57">
+        <f>E14+4</f>
+        <v>45915</v>
       </c>
       <c r="G14" s="10"/>
       <c r="H14" s="5">
-        <f t="shared" si="5"/>
-        <v>6</v>
-      </c>
-      <c r="I14" s="39"/>
-      <c r="J14" s="39"/>
-      <c r="K14" s="39"/>
-      <c r="L14" s="39"/>
-      <c r="M14" s="39"/>
-      <c r="N14" s="39"/>
-      <c r="O14" s="39"/>
-      <c r="P14" s="39"/>
-      <c r="Q14" s="39"/>
-      <c r="R14" s="39"/>
-      <c r="S14" s="39"/>
-      <c r="T14" s="39"/>
-      <c r="U14" s="43"/>
-      <c r="V14" s="43"/>
-      <c r="W14" s="39"/>
-      <c r="X14" s="39"/>
-      <c r="Y14" s="39"/>
-      <c r="Z14" s="39"/>
-      <c r="AA14" s="39"/>
-      <c r="AB14" s="39"/>
-      <c r="AC14" s="39"/>
-      <c r="AD14" s="39"/>
-      <c r="AE14" s="39"/>
-      <c r="AF14" s="39"/>
-      <c r="AG14" s="39"/>
-      <c r="AH14" s="39"/>
-      <c r="AI14" s="39"/>
-      <c r="AJ14" s="39"/>
-      <c r="AK14" s="39"/>
-      <c r="AL14" s="39"/>
-      <c r="AM14" s="39"/>
-      <c r="AN14" s="39"/>
-      <c r="AO14" s="39"/>
-      <c r="AP14" s="39"/>
-      <c r="AQ14" s="39"/>
-      <c r="AR14" s="39"/>
-      <c r="AS14" s="39"/>
-      <c r="AT14" s="39"/>
-      <c r="AU14" s="39"/>
-      <c r="AV14" s="39"/>
-      <c r="AW14" s="39"/>
-      <c r="AX14" s="39"/>
-      <c r="AY14" s="39"/>
-      <c r="AZ14" s="39"/>
-      <c r="BA14" s="39"/>
-      <c r="BB14" s="39"/>
-      <c r="BC14" s="39"/>
-      <c r="BD14" s="39"/>
-      <c r="BE14" s="39"/>
-      <c r="BF14" s="39"/>
-      <c r="BG14" s="39"/>
-      <c r="BH14" s="39"/>
-      <c r="BI14" s="39"/>
-      <c r="BJ14" s="39"/>
-      <c r="BK14" s="39"/>
-      <c r="BL14" s="39"/>
+        <f t="shared" ca="1" si="62"/>
+        <v>5</v>
+      </c>
+      <c r="I14" s="44"/>
+      <c r="J14" s="44"/>
+      <c r="K14" s="44"/>
+      <c r="L14" s="44"/>
+      <c r="M14" s="44"/>
+      <c r="N14" s="44"/>
+      <c r="O14" s="44"/>
+      <c r="P14" s="44"/>
+      <c r="Q14" s="44"/>
+      <c r="R14" s="44"/>
+      <c r="S14" s="44"/>
+      <c r="T14" s="44"/>
+      <c r="U14" s="48"/>
+      <c r="V14" s="48"/>
+      <c r="W14" s="44"/>
+      <c r="X14" s="44"/>
+      <c r="Y14" s="44"/>
+      <c r="Z14" s="44"/>
+      <c r="AA14" s="44"/>
+      <c r="AB14" s="44"/>
+      <c r="AC14" s="44"/>
+      <c r="AD14" s="44"/>
+      <c r="AE14" s="44"/>
+      <c r="AF14" s="44"/>
+      <c r="AG14" s="44"/>
+      <c r="AH14" s="44"/>
+      <c r="AI14" s="44"/>
+      <c r="AJ14" s="44"/>
+      <c r="AK14" s="44"/>
+      <c r="AL14" s="44"/>
+      <c r="AM14" s="44"/>
+      <c r="AN14" s="44"/>
+      <c r="AO14" s="44"/>
+      <c r="AP14" s="44"/>
+      <c r="AQ14" s="44"/>
+      <c r="AR14" s="44"/>
+      <c r="AS14" s="44"/>
+      <c r="AT14" s="44"/>
+      <c r="AU14" s="44"/>
+      <c r="AV14" s="44"/>
+      <c r="AW14" s="44"/>
+      <c r="AX14" s="44"/>
+      <c r="AY14" s="44"/>
+      <c r="AZ14" s="44"/>
+      <c r="BA14" s="44"/>
+      <c r="BB14" s="44"/>
+      <c r="BC14" s="44"/>
+      <c r="BD14" s="44"/>
+      <c r="BE14" s="44"/>
+      <c r="BF14" s="44"/>
+      <c r="BG14" s="44"/>
+      <c r="BH14" s="44"/>
+      <c r="BI14" s="44"/>
+      <c r="BJ14" s="44"/>
+      <c r="BK14" s="44"/>
+      <c r="BL14" s="44"/>
+      <c r="BM14" s="44"/>
+      <c r="BN14" s="44"/>
+      <c r="BO14" s="44"/>
+      <c r="BP14" s="44"/>
+      <c r="BQ14" s="44"/>
+      <c r="BR14" s="44"/>
+      <c r="BS14" s="44"/>
+      <c r="BT14" s="44"/>
+      <c r="BU14" s="44"/>
+      <c r="BV14" s="44"/>
+      <c r="BW14" s="44"/>
+      <c r="BX14" s="44"/>
+      <c r="BY14" s="44"/>
+      <c r="BZ14" s="44"/>
+      <c r="CA14" s="44"/>
+      <c r="CB14" s="44"/>
+      <c r="CC14" s="44"/>
+      <c r="CD14" s="44"/>
+      <c r="CE14" s="44"/>
+      <c r="CF14" s="44"/>
+      <c r="CG14" s="44"/>
+      <c r="CH14" s="44"/>
+      <c r="CI14" s="44"/>
+      <c r="CJ14" s="44"/>
+      <c r="CK14" s="44"/>
+      <c r="CL14" s="44"/>
+      <c r="CM14" s="44"/>
+      <c r="CN14" s="44"/>
+      <c r="CO14" s="44"/>
+      <c r="CP14" s="44"/>
+      <c r="CQ14" s="44"/>
+      <c r="CR14" s="44"/>
+      <c r="CS14" s="44"/>
+      <c r="CT14" s="44"/>
+      <c r="CU14" s="44"/>
+      <c r="CV14" s="44"/>
+      <c r="CW14" s="44"/>
+      <c r="CX14" s="44"/>
+      <c r="CY14" s="44"/>
+      <c r="CZ14" s="44"/>
+      <c r="DA14" s="44"/>
+      <c r="DB14" s="44"/>
+      <c r="DC14" s="44"/>
+      <c r="DD14" s="44"/>
+      <c r="DE14" s="44"/>
+      <c r="DF14" s="44"/>
+      <c r="DG14" s="44"/>
+      <c r="DH14" s="44"/>
+      <c r="DI14" s="44"/>
     </row>
-    <row r="15" spans="1:64" s="34" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:113" s="39" customFormat="1" ht="30" customHeight="1">
       <c r="A15" s="6"/>
-      <c r="B15" s="44" t="s">
-        <v>17</v>
-      </c>
-      <c r="C15" s="36" t="s">
+      <c r="B15" s="54" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="D15" s="45">
-        <v>0.5</v>
-      </c>
-      <c r="E15" s="46">
+      <c r="D15" s="56"/>
+      <c r="E15" s="57">
         <f>F14</f>
-        <v>45903</v>
-      </c>
-      <c r="F15" s="46">
+        <v>45915</v>
+      </c>
+      <c r="F15" s="57">
         <f>E15+3</f>
-        <v>45906</v>
+        <v>45918</v>
       </c>
       <c r="G15" s="10"/>
       <c r="H15" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" ca="1" si="62"/>
         <v>4</v>
       </c>
-      <c r="I15" s="39"/>
-      <c r="J15" s="39"/>
-      <c r="K15" s="39"/>
-      <c r="L15" s="39"/>
-      <c r="M15" s="39"/>
-      <c r="N15" s="39"/>
-      <c r="O15" s="39"/>
-      <c r="P15" s="39"/>
-      <c r="Q15" s="39"/>
-      <c r="R15" s="39"/>
-      <c r="S15" s="39"/>
-      <c r="T15" s="39"/>
-      <c r="U15" s="39"/>
-      <c r="V15" s="39"/>
-      <c r="W15" s="39"/>
-      <c r="X15" s="39"/>
-      <c r="Y15" s="39"/>
-      <c r="Z15" s="39"/>
-      <c r="AA15" s="39"/>
-      <c r="AB15" s="39"/>
-      <c r="AC15" s="39"/>
-      <c r="AD15" s="39"/>
-      <c r="AE15" s="39"/>
-      <c r="AF15" s="39"/>
-      <c r="AG15" s="39"/>
-      <c r="AH15" s="39"/>
-      <c r="AI15" s="39"/>
-      <c r="AJ15" s="39"/>
-      <c r="AK15" s="39"/>
-      <c r="AL15" s="39"/>
-      <c r="AM15" s="39"/>
-      <c r="AN15" s="39"/>
-      <c r="AO15" s="39"/>
-      <c r="AP15" s="39"/>
-      <c r="AQ15" s="39"/>
-      <c r="AR15" s="39"/>
-      <c r="AS15" s="39"/>
-      <c r="AT15" s="39"/>
-      <c r="AU15" s="39"/>
-      <c r="AV15" s="39"/>
-      <c r="AW15" s="39"/>
-      <c r="AX15" s="39"/>
-      <c r="AY15" s="39"/>
-      <c r="AZ15" s="39"/>
-      <c r="BA15" s="39"/>
-      <c r="BB15" s="39"/>
-      <c r="BC15" s="39"/>
-      <c r="BD15" s="39"/>
-      <c r="BE15" s="39"/>
-      <c r="BF15" s="39"/>
-      <c r="BG15" s="39"/>
-      <c r="BH15" s="39"/>
-      <c r="BI15" s="39"/>
-      <c r="BJ15" s="39"/>
-      <c r="BK15" s="39"/>
-      <c r="BL15" s="39"/>
+      <c r="I15" s="44"/>
+      <c r="J15" s="44"/>
+      <c r="K15" s="44"/>
+      <c r="L15" s="44"/>
+      <c r="M15" s="44"/>
+      <c r="N15" s="44"/>
+      <c r="O15" s="44"/>
+      <c r="P15" s="44"/>
+      <c r="Q15" s="44"/>
+      <c r="R15" s="44"/>
+      <c r="S15" s="44"/>
+      <c r="T15" s="44"/>
+      <c r="U15" s="44"/>
+      <c r="V15" s="44"/>
+      <c r="W15" s="44"/>
+      <c r="X15" s="44"/>
+      <c r="Y15" s="44"/>
+      <c r="Z15" s="44"/>
+      <c r="AA15" s="44"/>
+      <c r="AB15" s="44"/>
+      <c r="AC15" s="44"/>
+      <c r="AD15" s="44"/>
+      <c r="AE15" s="44"/>
+      <c r="AF15" s="44"/>
+      <c r="AG15" s="44"/>
+      <c r="AH15" s="44"/>
+      <c r="AI15" s="44"/>
+      <c r="AJ15" s="44"/>
+      <c r="AK15" s="44"/>
+      <c r="AL15" s="44"/>
+      <c r="AM15" s="44"/>
+      <c r="AN15" s="44"/>
+      <c r="AO15" s="44"/>
+      <c r="AP15" s="44"/>
+      <c r="AQ15" s="44"/>
+      <c r="AR15" s="44"/>
+      <c r="AS15" s="44"/>
+      <c r="AT15" s="44"/>
+      <c r="AU15" s="44"/>
+      <c r="AV15" s="44"/>
+      <c r="AW15" s="44"/>
+      <c r="AX15" s="44"/>
+      <c r="AY15" s="44"/>
+      <c r="AZ15" s="44"/>
+      <c r="BA15" s="44"/>
+      <c r="BB15" s="44"/>
+      <c r="BC15" s="44"/>
+      <c r="BD15" s="44"/>
+      <c r="BE15" s="44"/>
+      <c r="BF15" s="44"/>
+      <c r="BG15" s="44"/>
+      <c r="BH15" s="44"/>
+      <c r="BI15" s="44"/>
+      <c r="BJ15" s="44"/>
+      <c r="BK15" s="44"/>
+      <c r="BL15" s="44"/>
+      <c r="BM15" s="44"/>
+      <c r="BN15" s="44"/>
+      <c r="BO15" s="44"/>
+      <c r="BP15" s="44"/>
+      <c r="BQ15" s="44"/>
+      <c r="BR15" s="44"/>
+      <c r="BS15" s="44"/>
+      <c r="BT15" s="44"/>
+      <c r="BU15" s="44"/>
+      <c r="BV15" s="44"/>
+      <c r="BW15" s="44"/>
+      <c r="BX15" s="44"/>
+      <c r="BY15" s="44"/>
+      <c r="BZ15" s="44"/>
+      <c r="CA15" s="44"/>
+      <c r="CB15" s="44"/>
+      <c r="CC15" s="44"/>
+      <c r="CD15" s="44"/>
+      <c r="CE15" s="44"/>
+      <c r="CF15" s="44"/>
+      <c r="CG15" s="44"/>
+      <c r="CH15" s="44"/>
+      <c r="CI15" s="44"/>
+      <c r="CJ15" s="44"/>
+      <c r="CK15" s="44"/>
+      <c r="CL15" s="44"/>
+      <c r="CM15" s="44"/>
+      <c r="CN15" s="44"/>
+      <c r="CO15" s="44"/>
+      <c r="CP15" s="44"/>
+      <c r="CQ15" s="44"/>
+      <c r="CR15" s="44"/>
+      <c r="CS15" s="44"/>
+      <c r="CT15" s="44"/>
+      <c r="CU15" s="44"/>
+      <c r="CV15" s="44"/>
+      <c r="CW15" s="44"/>
+      <c r="CX15" s="44"/>
+      <c r="CY15" s="44"/>
+      <c r="CZ15" s="44"/>
+      <c r="DA15" s="44"/>
+      <c r="DB15" s="44"/>
+      <c r="DC15" s="44"/>
+      <c r="DD15" s="44"/>
+      <c r="DE15" s="44"/>
+      <c r="DF15" s="44"/>
+      <c r="DG15" s="44"/>
+      <c r="DH15" s="44"/>
+      <c r="DI15" s="44"/>
     </row>
-    <row r="16" spans="1:64" s="34" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:113" s="39" customFormat="1" ht="30" customHeight="1">
       <c r="A16" s="6"/>
-      <c r="B16" s="44" t="s">
-        <v>18</v>
-      </c>
-      <c r="C16" s="36" t="s">
+      <c r="B16" s="54" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="D16" s="45">
-        <v>0.5</v>
-      </c>
-      <c r="E16" s="46">
+      <c r="D16" s="56"/>
+      <c r="E16" s="57">
         <f>E15</f>
-        <v>45903</v>
-      </c>
-      <c r="F16" s="46">
-        <f>E16+2</f>
-        <v>45905</v>
+        <v>45915</v>
+      </c>
+      <c r="F16" s="57">
+        <f>E16+3</f>
+        <v>45918</v>
       </c>
       <c r="G16" s="10"/>
       <c r="H16" s="5">
-        <f t="shared" si="5"/>
-        <v>3</v>
-      </c>
-      <c r="I16" s="39"/>
-      <c r="J16" s="39"/>
-      <c r="K16" s="39"/>
-      <c r="L16" s="39"/>
-      <c r="M16" s="39"/>
-      <c r="N16" s="39"/>
-      <c r="O16" s="39"/>
-      <c r="P16" s="39"/>
-      <c r="Q16" s="39"/>
-      <c r="R16" s="39"/>
-      <c r="S16" s="39"/>
-      <c r="T16" s="39"/>
-      <c r="U16" s="39"/>
-      <c r="V16" s="39"/>
-      <c r="W16" s="39"/>
-      <c r="X16" s="39"/>
-      <c r="Y16" s="43"/>
-      <c r="Z16" s="39"/>
-      <c r="AA16" s="39"/>
-      <c r="AB16" s="39"/>
-      <c r="AC16" s="39"/>
-      <c r="AD16" s="39"/>
-      <c r="AE16" s="39"/>
-      <c r="AF16" s="39"/>
-      <c r="AG16" s="39"/>
-      <c r="AH16" s="39"/>
-      <c r="AI16" s="39"/>
-      <c r="AJ16" s="39"/>
-      <c r="AK16" s="39"/>
-      <c r="AL16" s="39"/>
-      <c r="AM16" s="39"/>
-      <c r="AN16" s="39"/>
-      <c r="AO16" s="39"/>
-      <c r="AP16" s="39"/>
-      <c r="AQ16" s="39"/>
-      <c r="AR16" s="39"/>
-      <c r="AS16" s="39"/>
-      <c r="AT16" s="39"/>
-      <c r="AU16" s="39"/>
-      <c r="AV16" s="39"/>
-      <c r="AW16" s="39"/>
-      <c r="AX16" s="39"/>
-      <c r="AY16" s="39"/>
-      <c r="AZ16" s="39"/>
-      <c r="BA16" s="39"/>
-      <c r="BB16" s="39"/>
-      <c r="BC16" s="39"/>
-      <c r="BD16" s="39"/>
-      <c r="BE16" s="39"/>
-      <c r="BF16" s="39"/>
-      <c r="BG16" s="39"/>
-      <c r="BH16" s="39"/>
-      <c r="BI16" s="39"/>
-      <c r="BJ16" s="39"/>
-      <c r="BK16" s="39"/>
-      <c r="BL16" s="39"/>
+        <f t="shared" ca="1" si="62"/>
+        <v>4</v>
+      </c>
+      <c r="I16" s="44"/>
+      <c r="J16" s="44"/>
+      <c r="K16" s="44"/>
+      <c r="L16" s="44"/>
+      <c r="M16" s="44"/>
+      <c r="N16" s="44"/>
+      <c r="O16" s="44"/>
+      <c r="P16" s="44"/>
+      <c r="Q16" s="44"/>
+      <c r="R16" s="44"/>
+      <c r="S16" s="44"/>
+      <c r="T16" s="44"/>
+      <c r="U16" s="44"/>
+      <c r="V16" s="44"/>
+      <c r="W16" s="44"/>
+      <c r="X16" s="44"/>
+      <c r="Y16" s="48"/>
+      <c r="Z16" s="44"/>
+      <c r="AA16" s="44"/>
+      <c r="AB16" s="44"/>
+      <c r="AC16" s="44"/>
+      <c r="AD16" s="44"/>
+      <c r="AE16" s="44"/>
+      <c r="AF16" s="44"/>
+      <c r="AG16" s="44"/>
+      <c r="AH16" s="44"/>
+      <c r="AI16" s="44"/>
+      <c r="AJ16" s="44"/>
+      <c r="AK16" s="44"/>
+      <c r="AL16" s="44"/>
+      <c r="AM16" s="44"/>
+      <c r="AN16" s="44"/>
+      <c r="AO16" s="44"/>
+      <c r="AP16" s="44"/>
+      <c r="AQ16" s="44"/>
+      <c r="AR16" s="44"/>
+      <c r="AS16" s="44"/>
+      <c r="AT16" s="44"/>
+      <c r="AU16" s="44"/>
+      <c r="AV16" s="44"/>
+      <c r="AW16" s="44"/>
+      <c r="AX16" s="44"/>
+      <c r="AY16" s="44"/>
+      <c r="AZ16" s="44"/>
+      <c r="BA16" s="44"/>
+      <c r="BB16" s="44"/>
+      <c r="BC16" s="44"/>
+      <c r="BD16" s="44"/>
+      <c r="BE16" s="44"/>
+      <c r="BF16" s="44"/>
+      <c r="BG16" s="44"/>
+      <c r="BH16" s="44"/>
+      <c r="BI16" s="44"/>
+      <c r="BJ16" s="44"/>
+      <c r="BK16" s="44"/>
+      <c r="BL16" s="44"/>
+      <c r="BM16" s="44"/>
+      <c r="BN16" s="44"/>
+      <c r="BO16" s="44"/>
+      <c r="BP16" s="44"/>
+      <c r="BQ16" s="44"/>
+      <c r="BR16" s="44"/>
+      <c r="BS16" s="44"/>
+      <c r="BT16" s="44"/>
+      <c r="BU16" s="44"/>
+      <c r="BV16" s="44"/>
+      <c r="BW16" s="44"/>
+      <c r="BX16" s="44"/>
+      <c r="BY16" s="44"/>
+      <c r="BZ16" s="44"/>
+      <c r="CA16" s="44"/>
+      <c r="CB16" s="44"/>
+      <c r="CC16" s="44"/>
+      <c r="CD16" s="44"/>
+      <c r="CE16" s="44"/>
+      <c r="CF16" s="44"/>
+      <c r="CG16" s="44"/>
+      <c r="CH16" s="44"/>
+      <c r="CI16" s="44"/>
+      <c r="CJ16" s="44"/>
+      <c r="CK16" s="44"/>
+      <c r="CL16" s="44"/>
+      <c r="CM16" s="44"/>
+      <c r="CN16" s="44"/>
+      <c r="CO16" s="44"/>
+      <c r="CP16" s="44"/>
+      <c r="CQ16" s="44"/>
+      <c r="CR16" s="44"/>
+      <c r="CS16" s="44"/>
+      <c r="CT16" s="44"/>
+      <c r="CU16" s="44"/>
+      <c r="CV16" s="44"/>
+      <c r="CW16" s="44"/>
+      <c r="CX16" s="44"/>
+      <c r="CY16" s="44"/>
+      <c r="CZ16" s="44"/>
+      <c r="DA16" s="44"/>
+      <c r="DB16" s="44"/>
+      <c r="DC16" s="44"/>
+      <c r="DD16" s="44"/>
+      <c r="DE16" s="44"/>
+      <c r="DF16" s="44"/>
+      <c r="DG16" s="44"/>
+      <c r="DH16" s="44"/>
+      <c r="DI16" s="44"/>
     </row>
-    <row r="17" spans="1:64" s="34" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:113" s="39" customFormat="1" ht="30" customHeight="1">
       <c r="A17" s="6"/>
-      <c r="B17" s="44" t="s">
-        <v>1</v>
-      </c>
-      <c r="C17" s="36" t="s">
+      <c r="B17" s="58" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="59"/>
+      <c r="D17" s="60"/>
+      <c r="E17" s="61"/>
+      <c r="F17" s="62"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="5" t="str">
+        <f t="shared" ca="1" si="62"/>
+        <v/>
+      </c>
+      <c r="I17" s="63"/>
+      <c r="J17" s="63"/>
+      <c r="K17" s="63"/>
+      <c r="L17" s="63"/>
+      <c r="M17" s="63"/>
+      <c r="N17" s="63"/>
+      <c r="O17" s="63"/>
+      <c r="P17" s="63"/>
+      <c r="Q17" s="63"/>
+      <c r="R17" s="63"/>
+      <c r="S17" s="63"/>
+      <c r="T17" s="63"/>
+      <c r="U17" s="63"/>
+      <c r="V17" s="63"/>
+      <c r="W17" s="63"/>
+      <c r="X17" s="63"/>
+      <c r="Y17" s="63"/>
+      <c r="Z17" s="63"/>
+      <c r="AA17" s="63"/>
+      <c r="AB17" s="63"/>
+      <c r="AC17" s="63"/>
+      <c r="AD17" s="63"/>
+      <c r="AE17" s="63"/>
+      <c r="AF17" s="63"/>
+      <c r="AG17" s="63"/>
+      <c r="AH17" s="63"/>
+      <c r="AI17" s="63"/>
+      <c r="AJ17" s="63"/>
+      <c r="AK17" s="63"/>
+      <c r="AL17" s="63"/>
+      <c r="AM17" s="63"/>
+      <c r="AN17" s="63"/>
+      <c r="AO17" s="63"/>
+      <c r="AP17" s="63"/>
+      <c r="AQ17" s="63"/>
+      <c r="AR17" s="63"/>
+      <c r="AS17" s="63"/>
+      <c r="AT17" s="63"/>
+      <c r="AU17" s="63"/>
+      <c r="AV17" s="63"/>
+      <c r="AW17" s="63"/>
+      <c r="AX17" s="63"/>
+      <c r="AY17" s="63"/>
+      <c r="AZ17" s="63"/>
+      <c r="BA17" s="63"/>
+      <c r="BB17" s="63"/>
+      <c r="BC17" s="63"/>
+      <c r="BD17" s="63"/>
+      <c r="BE17" s="63"/>
+      <c r="BF17" s="63"/>
+      <c r="BG17" s="63"/>
+      <c r="BH17" s="63"/>
+      <c r="BI17" s="63"/>
+      <c r="BJ17" s="63"/>
+      <c r="BK17" s="63"/>
+      <c r="BL17" s="63"/>
+      <c r="BM17" s="63"/>
+      <c r="BN17" s="63"/>
+      <c r="BO17" s="63"/>
+      <c r="BP17" s="63"/>
+      <c r="BQ17" s="63"/>
+      <c r="BR17" s="63"/>
+      <c r="BS17" s="63"/>
+      <c r="BT17" s="63"/>
+      <c r="BU17" s="63"/>
+      <c r="BV17" s="63"/>
+      <c r="BW17" s="63"/>
+      <c r="BX17" s="63"/>
+      <c r="BY17" s="63"/>
+      <c r="BZ17" s="63"/>
+      <c r="CA17" s="63"/>
+      <c r="CB17" s="63"/>
+      <c r="CC17" s="63"/>
+      <c r="CD17" s="63"/>
+      <c r="CE17" s="63"/>
+      <c r="CF17" s="63"/>
+      <c r="CG17" s="63"/>
+      <c r="CH17" s="63"/>
+      <c r="CI17" s="63"/>
+      <c r="CJ17" s="63"/>
+      <c r="CK17" s="63"/>
+      <c r="CL17" s="63"/>
+      <c r="CM17" s="63"/>
+      <c r="CN17" s="63"/>
+      <c r="CO17" s="63"/>
+      <c r="CP17" s="63"/>
+      <c r="CQ17" s="63"/>
+      <c r="CR17" s="63"/>
+      <c r="CS17" s="63"/>
+      <c r="CT17" s="63"/>
+      <c r="CU17" s="63"/>
+      <c r="CV17" s="63"/>
+      <c r="CW17" s="63"/>
+      <c r="CX17" s="63"/>
+      <c r="CY17" s="63"/>
+      <c r="CZ17" s="63"/>
+      <c r="DA17" s="63"/>
+      <c r="DB17" s="63"/>
+      <c r="DC17" s="63"/>
+      <c r="DD17" s="63"/>
+      <c r="DE17" s="63"/>
+      <c r="DF17" s="63"/>
+      <c r="DG17" s="63"/>
+      <c r="DH17" s="63"/>
+      <c r="DI17" s="63"/>
+    </row>
+    <row r="18" spans="1:113" s="39" customFormat="1" ht="30" customHeight="1">
+      <c r="A18" s="6"/>
+      <c r="B18" s="64" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="65" t="s">
         <v>10</v>
       </c>
-      <c r="D17" s="45">
-        <v>0.5</v>
-      </c>
-      <c r="E17" s="46">
-        <f>E16</f>
-        <v>45903</v>
-      </c>
-      <c r="F17" s="46">
-        <f>E17+3</f>
-        <v>45906</v>
-      </c>
-      <c r="G17" s="10"/>
-      <c r="H17" s="5">
-        <f t="shared" si="5"/>
+      <c r="D18" s="66">
+        <v>0</v>
+      </c>
+      <c r="E18" s="67">
+        <f>E9+15</f>
+        <v>45896</v>
+      </c>
+      <c r="F18" s="67">
+        <f>E18+32</f>
+        <v>45928</v>
+      </c>
+      <c r="G18" s="10"/>
+      <c r="H18" s="5">
+        <f t="shared" ca="1" si="62"/>
+        <v>33</v>
+      </c>
+      <c r="I18" s="44"/>
+      <c r="J18" s="44"/>
+      <c r="K18" s="44"/>
+      <c r="L18" s="44"/>
+      <c r="M18" s="44"/>
+      <c r="N18" s="44"/>
+      <c r="O18" s="44"/>
+      <c r="P18" s="44"/>
+      <c r="Q18" s="44"/>
+      <c r="R18" s="44"/>
+      <c r="S18" s="44"/>
+      <c r="T18" s="44"/>
+      <c r="U18" s="44"/>
+      <c r="V18" s="44"/>
+      <c r="W18" s="44"/>
+      <c r="X18" s="44"/>
+      <c r="Y18" s="44"/>
+      <c r="Z18" s="44"/>
+      <c r="AA18" s="44"/>
+      <c r="AB18" s="44"/>
+      <c r="AC18" s="44"/>
+      <c r="AD18" s="44"/>
+      <c r="AE18" s="44"/>
+      <c r="AF18" s="44"/>
+      <c r="AG18" s="44"/>
+      <c r="AH18" s="44"/>
+      <c r="AI18" s="44"/>
+      <c r="AJ18" s="44"/>
+      <c r="AK18" s="44"/>
+      <c r="AL18" s="44"/>
+      <c r="AM18" s="44"/>
+      <c r="AN18" s="44"/>
+      <c r="AO18" s="44"/>
+      <c r="AP18" s="44"/>
+      <c r="AQ18" s="44"/>
+      <c r="AR18" s="44"/>
+      <c r="AS18" s="44"/>
+      <c r="AT18" s="44"/>
+      <c r="AU18" s="44"/>
+      <c r="AV18" s="44"/>
+      <c r="AW18" s="44"/>
+      <c r="AX18" s="44"/>
+      <c r="AY18" s="44"/>
+      <c r="AZ18" s="44"/>
+      <c r="BA18" s="44"/>
+      <c r="BB18" s="44"/>
+      <c r="BC18" s="44"/>
+      <c r="BD18" s="44"/>
+      <c r="BE18" s="44"/>
+      <c r="BF18" s="44"/>
+      <c r="BG18" s="44"/>
+      <c r="BH18" s="44"/>
+      <c r="BI18" s="44"/>
+      <c r="BJ18" s="44"/>
+      <c r="BK18" s="44"/>
+      <c r="BL18" s="44"/>
+      <c r="BM18" s="44"/>
+      <c r="BN18" s="44"/>
+      <c r="BO18" s="44"/>
+      <c r="BP18" s="44"/>
+      <c r="BQ18" s="44"/>
+      <c r="BR18" s="44"/>
+      <c r="BS18" s="44"/>
+      <c r="BT18" s="44"/>
+      <c r="BU18" s="44"/>
+      <c r="BV18" s="44"/>
+      <c r="BW18" s="44"/>
+      <c r="BX18" s="44"/>
+      <c r="BY18" s="44"/>
+      <c r="BZ18" s="44"/>
+      <c r="CA18" s="44"/>
+      <c r="CB18" s="44"/>
+      <c r="CC18" s="44"/>
+      <c r="CD18" s="44"/>
+      <c r="CE18" s="44"/>
+      <c r="CF18" s="44"/>
+      <c r="CG18" s="44"/>
+      <c r="CH18" s="44"/>
+      <c r="CI18" s="44"/>
+      <c r="CJ18" s="44"/>
+      <c r="CK18" s="44"/>
+      <c r="CL18" s="44"/>
+      <c r="CM18" s="44"/>
+      <c r="CN18" s="44"/>
+      <c r="CO18" s="44"/>
+      <c r="CP18" s="44"/>
+      <c r="CQ18" s="44"/>
+      <c r="CR18" s="44"/>
+      <c r="CS18" s="44"/>
+      <c r="CT18" s="44"/>
+      <c r="CU18" s="44"/>
+      <c r="CV18" s="44"/>
+      <c r="CW18" s="44"/>
+      <c r="CX18" s="44"/>
+      <c r="CY18" s="44"/>
+      <c r="CZ18" s="44"/>
+      <c r="DA18" s="44"/>
+      <c r="DB18" s="44"/>
+      <c r="DC18" s="44"/>
+      <c r="DD18" s="44"/>
+      <c r="DE18" s="44"/>
+      <c r="DF18" s="44"/>
+      <c r="DG18" s="44"/>
+      <c r="DH18" s="44"/>
+      <c r="DI18" s="44"/>
+    </row>
+    <row r="19" spans="1:113" s="39" customFormat="1" ht="30" customHeight="1">
+      <c r="A19" s="6"/>
+      <c r="B19" s="64" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="65" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" s="66">
+        <v>0</v>
+      </c>
+      <c r="E19" s="67">
+        <f>F18+1</f>
+        <v>45929</v>
+      </c>
+      <c r="F19" s="67">
+        <f>E19+7</f>
+        <v>45936</v>
+      </c>
+      <c r="G19" s="10"/>
+      <c r="H19" s="5">
+        <f t="shared" ca="1" si="62"/>
+        <v>8</v>
+      </c>
+      <c r="I19" s="44"/>
+      <c r="J19" s="44"/>
+      <c r="K19" s="44"/>
+      <c r="L19" s="44"/>
+      <c r="M19" s="44"/>
+      <c r="N19" s="44"/>
+      <c r="O19" s="44"/>
+      <c r="P19" s="44"/>
+      <c r="Q19" s="44"/>
+      <c r="R19" s="44"/>
+      <c r="S19" s="44"/>
+      <c r="T19" s="44"/>
+      <c r="U19" s="44"/>
+      <c r="V19" s="44"/>
+      <c r="W19" s="44"/>
+      <c r="X19" s="44"/>
+      <c r="Y19" s="44"/>
+      <c r="Z19" s="44"/>
+      <c r="AA19" s="44"/>
+      <c r="AB19" s="44"/>
+      <c r="AC19" s="44"/>
+      <c r="AD19" s="44"/>
+      <c r="AE19" s="44"/>
+      <c r="AF19" s="44"/>
+      <c r="AG19" s="44"/>
+      <c r="AH19" s="44"/>
+      <c r="AI19" s="44"/>
+      <c r="AJ19" s="44"/>
+      <c r="AK19" s="44"/>
+      <c r="AL19" s="44"/>
+      <c r="AM19" s="44"/>
+      <c r="AN19" s="44"/>
+      <c r="AO19" s="44"/>
+      <c r="AP19" s="44"/>
+      <c r="AQ19" s="44"/>
+      <c r="AR19" s="44"/>
+      <c r="AS19" s="44"/>
+      <c r="AT19" s="44"/>
+      <c r="AU19" s="44"/>
+      <c r="AV19" s="44"/>
+      <c r="AW19" s="44"/>
+      <c r="AX19" s="44"/>
+      <c r="AY19" s="44"/>
+      <c r="AZ19" s="44"/>
+      <c r="BA19" s="44"/>
+      <c r="BB19" s="44"/>
+      <c r="BC19" s="44"/>
+      <c r="BD19" s="44"/>
+      <c r="BE19" s="44"/>
+      <c r="BF19" s="44"/>
+      <c r="BG19" s="44"/>
+      <c r="BH19" s="44"/>
+      <c r="BI19" s="44"/>
+      <c r="BJ19" s="44"/>
+      <c r="BK19" s="44"/>
+      <c r="BL19" s="44"/>
+      <c r="BM19" s="44"/>
+      <c r="BN19" s="44"/>
+      <c r="BO19" s="44"/>
+      <c r="BP19" s="44"/>
+      <c r="BQ19" s="44"/>
+      <c r="BR19" s="44"/>
+      <c r="BS19" s="44"/>
+      <c r="BT19" s="44"/>
+      <c r="BU19" s="44"/>
+      <c r="BV19" s="44"/>
+      <c r="BW19" s="44"/>
+      <c r="BX19" s="44"/>
+      <c r="BY19" s="44"/>
+      <c r="BZ19" s="44"/>
+      <c r="CA19" s="44"/>
+      <c r="CB19" s="44"/>
+      <c r="CC19" s="44"/>
+      <c r="CD19" s="44"/>
+      <c r="CE19" s="44"/>
+      <c r="CF19" s="44"/>
+      <c r="CG19" s="44"/>
+      <c r="CH19" s="44"/>
+      <c r="CI19" s="44"/>
+      <c r="CJ19" s="44"/>
+      <c r="CK19" s="44"/>
+      <c r="CL19" s="44"/>
+      <c r="CM19" s="44"/>
+      <c r="CN19" s="44"/>
+      <c r="CO19" s="44"/>
+      <c r="CP19" s="44"/>
+      <c r="CQ19" s="44"/>
+      <c r="CR19" s="44"/>
+      <c r="CS19" s="44"/>
+      <c r="CT19" s="44"/>
+      <c r="CU19" s="44"/>
+      <c r="CV19" s="44"/>
+      <c r="CW19" s="44"/>
+      <c r="CX19" s="44"/>
+      <c r="CY19" s="44"/>
+      <c r="CZ19" s="44"/>
+      <c r="DA19" s="44"/>
+      <c r="DB19" s="44"/>
+      <c r="DC19" s="44"/>
+      <c r="DD19" s="44"/>
+      <c r="DE19" s="44"/>
+      <c r="DF19" s="44"/>
+      <c r="DG19" s="44"/>
+      <c r="DH19" s="44"/>
+      <c r="DI19" s="44"/>
+    </row>
+    <row r="20" spans="1:113" s="39" customFormat="1" ht="30" customHeight="1">
+      <c r="A20" s="6"/>
+      <c r="B20" s="64" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" s="65" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" s="66">
+        <v>0</v>
+      </c>
+      <c r="E20" s="67">
+        <f>E19+5</f>
+        <v>45934</v>
+      </c>
+      <c r="F20" s="67">
+        <f>E20+21</f>
+        <v>45955</v>
+      </c>
+      <c r="G20" s="10"/>
+      <c r="H20" s="5">
+        <f t="shared" ca="1" si="62"/>
+        <v>22</v>
+      </c>
+      <c r="I20" s="44"/>
+      <c r="J20" s="44"/>
+      <c r="K20" s="44"/>
+      <c r="L20" s="44"/>
+      <c r="M20" s="44"/>
+      <c r="N20" s="44"/>
+      <c r="O20" s="44"/>
+      <c r="P20" s="44"/>
+      <c r="Q20" s="44"/>
+      <c r="R20" s="44"/>
+      <c r="S20" s="44"/>
+      <c r="T20" s="44"/>
+      <c r="U20" s="44"/>
+      <c r="V20" s="44"/>
+      <c r="W20" s="44"/>
+      <c r="X20" s="44"/>
+      <c r="Y20" s="44"/>
+      <c r="Z20" s="44"/>
+      <c r="AA20" s="44"/>
+      <c r="AB20" s="44"/>
+      <c r="AC20" s="44"/>
+      <c r="AD20" s="44"/>
+      <c r="AE20" s="44"/>
+      <c r="AF20" s="44"/>
+      <c r="AG20" s="44"/>
+      <c r="AH20" s="44"/>
+      <c r="AI20" s="44"/>
+      <c r="AJ20" s="44"/>
+      <c r="AK20" s="44"/>
+      <c r="AL20" s="44"/>
+      <c r="AM20" s="44"/>
+      <c r="AN20" s="44"/>
+      <c r="AO20" s="44"/>
+      <c r="AP20" s="44"/>
+      <c r="AQ20" s="44"/>
+      <c r="AR20" s="44"/>
+      <c r="AS20" s="44"/>
+      <c r="AT20" s="44"/>
+      <c r="AU20" s="44"/>
+      <c r="AV20" s="44"/>
+      <c r="AW20" s="44"/>
+      <c r="AX20" s="44"/>
+      <c r="AY20" s="44"/>
+      <c r="AZ20" s="44"/>
+      <c r="BA20" s="44"/>
+      <c r="BB20" s="44"/>
+      <c r="BC20" s="44"/>
+      <c r="BD20" s="44"/>
+      <c r="BE20" s="44"/>
+      <c r="BF20" s="44"/>
+      <c r="BG20" s="44"/>
+      <c r="BH20" s="44"/>
+      <c r="BI20" s="44"/>
+      <c r="BJ20" s="44"/>
+      <c r="BK20" s="44"/>
+      <c r="BL20" s="44"/>
+      <c r="BM20" s="44"/>
+      <c r="BN20" s="44"/>
+      <c r="BO20" s="44"/>
+      <c r="BP20" s="44"/>
+      <c r="BQ20" s="44"/>
+      <c r="BR20" s="44"/>
+      <c r="BS20" s="44"/>
+      <c r="BT20" s="44"/>
+      <c r="BU20" s="44"/>
+      <c r="BV20" s="44"/>
+      <c r="BW20" s="44"/>
+      <c r="BX20" s="44"/>
+      <c r="BY20" s="44"/>
+      <c r="BZ20" s="44"/>
+      <c r="CA20" s="44"/>
+      <c r="CB20" s="44"/>
+      <c r="CC20" s="44"/>
+      <c r="CD20" s="44"/>
+      <c r="CE20" s="44"/>
+      <c r="CF20" s="44"/>
+      <c r="CG20" s="44"/>
+      <c r="CH20" s="44"/>
+      <c r="CI20" s="44"/>
+      <c r="CJ20" s="44"/>
+      <c r="CK20" s="44"/>
+      <c r="CL20" s="44"/>
+      <c r="CM20" s="44"/>
+      <c r="CN20" s="44"/>
+      <c r="CO20" s="44"/>
+      <c r="CP20" s="44"/>
+      <c r="CQ20" s="44"/>
+      <c r="CR20" s="44"/>
+      <c r="CS20" s="44"/>
+      <c r="CT20" s="44"/>
+      <c r="CU20" s="44"/>
+      <c r="CV20" s="44"/>
+      <c r="CW20" s="44"/>
+      <c r="CX20" s="44"/>
+      <c r="CY20" s="44"/>
+      <c r="CZ20" s="44"/>
+      <c r="DA20" s="44"/>
+      <c r="DB20" s="44"/>
+      <c r="DC20" s="44"/>
+      <c r="DD20" s="44"/>
+      <c r="DE20" s="44"/>
+      <c r="DF20" s="44"/>
+      <c r="DG20" s="44"/>
+      <c r="DH20" s="44"/>
+      <c r="DI20" s="44"/>
+    </row>
+    <row r="21" spans="1:113" s="39" customFormat="1" ht="30" customHeight="1">
+      <c r="A21" s="6"/>
+      <c r="B21" s="64" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" s="65" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" s="66">
+        <v>0</v>
+      </c>
+      <c r="E21" s="67">
+        <f>F20+1</f>
+        <v>45956</v>
+      </c>
+      <c r="F21" s="67">
+        <f>E21+4</f>
+        <v>45960</v>
+      </c>
+      <c r="G21" s="10"/>
+      <c r="H21" s="5">
+        <f t="shared" ca="1" si="62"/>
+        <v>5</v>
+      </c>
+      <c r="I21" s="44"/>
+      <c r="J21" s="44"/>
+      <c r="K21" s="44"/>
+      <c r="L21" s="44"/>
+      <c r="M21" s="44"/>
+      <c r="N21" s="44"/>
+      <c r="O21" s="44"/>
+      <c r="P21" s="44"/>
+      <c r="Q21" s="44"/>
+      <c r="R21" s="44"/>
+      <c r="S21" s="44"/>
+      <c r="T21" s="44"/>
+      <c r="U21" s="44"/>
+      <c r="V21" s="44"/>
+      <c r="W21" s="44"/>
+      <c r="X21" s="44"/>
+      <c r="Y21" s="44"/>
+      <c r="Z21" s="44"/>
+      <c r="AA21" s="44"/>
+      <c r="AB21" s="44"/>
+      <c r="AC21" s="44"/>
+      <c r="AD21" s="44"/>
+      <c r="AE21" s="44"/>
+      <c r="AF21" s="44"/>
+      <c r="AG21" s="44"/>
+      <c r="AH21" s="44"/>
+      <c r="AI21" s="44"/>
+      <c r="AJ21" s="44"/>
+      <c r="AK21" s="44"/>
+      <c r="AL21" s="44"/>
+      <c r="AM21" s="44"/>
+      <c r="AN21" s="44"/>
+      <c r="AO21" s="44"/>
+      <c r="AP21" s="44"/>
+      <c r="AQ21" s="44"/>
+      <c r="AR21" s="44"/>
+      <c r="AS21" s="44"/>
+      <c r="AT21" s="44"/>
+      <c r="AU21" s="44"/>
+      <c r="AV21" s="44"/>
+      <c r="AW21" s="44"/>
+      <c r="AX21" s="44"/>
+      <c r="AY21" s="44"/>
+      <c r="AZ21" s="44"/>
+      <c r="BA21" s="44"/>
+      <c r="BB21" s="44"/>
+      <c r="BC21" s="44"/>
+      <c r="BD21" s="44"/>
+      <c r="BE21" s="44"/>
+      <c r="BF21" s="44"/>
+      <c r="BG21" s="44"/>
+      <c r="BH21" s="44"/>
+      <c r="BI21" s="44"/>
+      <c r="BJ21" s="44"/>
+      <c r="BK21" s="44"/>
+      <c r="BL21" s="44"/>
+      <c r="BM21" s="44"/>
+      <c r="BN21" s="44"/>
+      <c r="BO21" s="44"/>
+      <c r="BP21" s="44"/>
+      <c r="BQ21" s="44"/>
+      <c r="BR21" s="44"/>
+      <c r="BS21" s="44"/>
+      <c r="BT21" s="44"/>
+      <c r="BU21" s="44"/>
+      <c r="BV21" s="44"/>
+      <c r="BW21" s="44"/>
+      <c r="BX21" s="44"/>
+      <c r="BY21" s="44"/>
+      <c r="BZ21" s="44"/>
+      <c r="CA21" s="44"/>
+      <c r="CB21" s="44"/>
+      <c r="CC21" s="44"/>
+      <c r="CD21" s="44"/>
+      <c r="CE21" s="44"/>
+      <c r="CF21" s="44"/>
+      <c r="CG21" s="44"/>
+      <c r="CH21" s="44"/>
+      <c r="CI21" s="44"/>
+      <c r="CJ21" s="44"/>
+      <c r="CK21" s="44"/>
+      <c r="CL21" s="44"/>
+      <c r="CM21" s="44"/>
+      <c r="CN21" s="44"/>
+      <c r="CO21" s="44"/>
+      <c r="CP21" s="44"/>
+      <c r="CQ21" s="44"/>
+      <c r="CR21" s="44"/>
+      <c r="CS21" s="44"/>
+      <c r="CT21" s="44"/>
+      <c r="CU21" s="44"/>
+      <c r="CV21" s="44"/>
+      <c r="CW21" s="44"/>
+      <c r="CX21" s="44"/>
+      <c r="CY21" s="44"/>
+      <c r="CZ21" s="44"/>
+      <c r="DA21" s="44"/>
+      <c r="DB21" s="44"/>
+      <c r="DC21" s="44"/>
+      <c r="DD21" s="44"/>
+      <c r="DE21" s="44"/>
+      <c r="DF21" s="44"/>
+      <c r="DG21" s="44"/>
+      <c r="DH21" s="44"/>
+      <c r="DI21" s="44"/>
+    </row>
+    <row r="22" spans="1:113" s="39" customFormat="1" ht="30" customHeight="1">
+      <c r="A22" s="6"/>
+      <c r="B22" s="64" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22" s="65" t="s">
+        <v>10</v>
+      </c>
+      <c r="D22" s="66">
+        <v>0</v>
+      </c>
+      <c r="E22" s="67">
+        <f>E20</f>
+        <v>45934</v>
+      </c>
+      <c r="F22" s="67">
+        <f>E22+19</f>
+        <v>45953</v>
+      </c>
+      <c r="G22" s="10"/>
+      <c r="H22" s="5">
+        <f t="shared" ca="1" si="62"/>
+        <v>20</v>
+      </c>
+      <c r="I22" s="44"/>
+      <c r="J22" s="44"/>
+      <c r="K22" s="44"/>
+      <c r="L22" s="44"/>
+      <c r="M22" s="44"/>
+      <c r="N22" s="44"/>
+      <c r="O22" s="44"/>
+      <c r="P22" s="44"/>
+      <c r="Q22" s="44"/>
+      <c r="R22" s="44"/>
+      <c r="S22" s="44"/>
+      <c r="T22" s="44"/>
+      <c r="U22" s="44"/>
+      <c r="V22" s="44"/>
+      <c r="W22" s="44"/>
+      <c r="X22" s="44"/>
+      <c r="Y22" s="44"/>
+      <c r="Z22" s="44"/>
+      <c r="AA22" s="44"/>
+      <c r="AB22" s="44"/>
+      <c r="AC22" s="44"/>
+      <c r="AD22" s="44"/>
+      <c r="AE22" s="44"/>
+      <c r="AF22" s="44"/>
+      <c r="AG22" s="44"/>
+      <c r="AH22" s="44"/>
+      <c r="AI22" s="44"/>
+      <c r="AJ22" s="44"/>
+      <c r="AK22" s="44"/>
+      <c r="AL22" s="44"/>
+      <c r="AM22" s="44"/>
+      <c r="AN22" s="44"/>
+      <c r="AO22" s="44"/>
+      <c r="AP22" s="44"/>
+      <c r="AQ22" s="44"/>
+      <c r="AR22" s="44"/>
+      <c r="AS22" s="44"/>
+      <c r="AT22" s="44"/>
+      <c r="AU22" s="44"/>
+      <c r="AV22" s="44"/>
+      <c r="AW22" s="44"/>
+      <c r="AX22" s="44"/>
+      <c r="AY22" s="44"/>
+      <c r="AZ22" s="44"/>
+      <c r="BA22" s="44"/>
+      <c r="BB22" s="44"/>
+      <c r="BC22" s="44"/>
+      <c r="BD22" s="44"/>
+      <c r="BE22" s="44"/>
+      <c r="BF22" s="44"/>
+      <c r="BG22" s="44"/>
+      <c r="BH22" s="44"/>
+      <c r="BI22" s="44"/>
+      <c r="BJ22" s="44"/>
+      <c r="BK22" s="44"/>
+      <c r="BL22" s="44"/>
+      <c r="BM22" s="44"/>
+      <c r="BN22" s="44"/>
+      <c r="BO22" s="44"/>
+      <c r="BP22" s="44"/>
+      <c r="BQ22" s="44"/>
+      <c r="BR22" s="44"/>
+      <c r="BS22" s="44"/>
+      <c r="BT22" s="44"/>
+      <c r="BU22" s="44"/>
+      <c r="BV22" s="44"/>
+      <c r="BW22" s="44"/>
+      <c r="BX22" s="44"/>
+      <c r="BY22" s="44"/>
+      <c r="BZ22" s="44"/>
+      <c r="CA22" s="44"/>
+      <c r="CB22" s="44"/>
+      <c r="CC22" s="44"/>
+      <c r="CD22" s="44"/>
+      <c r="CE22" s="44"/>
+      <c r="CF22" s="44"/>
+      <c r="CG22" s="44"/>
+      <c r="CH22" s="44"/>
+      <c r="CI22" s="44"/>
+      <c r="CJ22" s="44"/>
+      <c r="CK22" s="44"/>
+      <c r="CL22" s="44"/>
+      <c r="CM22" s="44"/>
+      <c r="CN22" s="44"/>
+      <c r="CO22" s="44"/>
+      <c r="CP22" s="44"/>
+      <c r="CQ22" s="44"/>
+      <c r="CR22" s="44"/>
+      <c r="CS22" s="44"/>
+      <c r="CT22" s="44"/>
+      <c r="CU22" s="44"/>
+      <c r="CV22" s="44"/>
+      <c r="CW22" s="44"/>
+      <c r="CX22" s="44"/>
+      <c r="CY22" s="44"/>
+      <c r="CZ22" s="44"/>
+      <c r="DA22" s="44"/>
+      <c r="DB22" s="44"/>
+      <c r="DC22" s="44"/>
+      <c r="DD22" s="44"/>
+      <c r="DE22" s="44"/>
+      <c r="DF22" s="44"/>
+      <c r="DG22" s="44"/>
+      <c r="DH22" s="44"/>
+      <c r="DI22" s="44"/>
+    </row>
+    <row r="23" spans="1:113" s="39" customFormat="1" ht="30" customHeight="1">
+      <c r="A23" s="6"/>
+      <c r="B23" s="68" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" s="69"/>
+      <c r="D23" s="70"/>
+      <c r="E23" s="71"/>
+      <c r="F23" s="72"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="5" t="str">
+        <f t="shared" ca="1" si="62"/>
+        <v/>
+      </c>
+      <c r="I23" s="73"/>
+      <c r="J23" s="73"/>
+      <c r="K23" s="73"/>
+      <c r="L23" s="73"/>
+      <c r="M23" s="73"/>
+      <c r="N23" s="73"/>
+      <c r="O23" s="73"/>
+      <c r="P23" s="73"/>
+      <c r="Q23" s="73"/>
+      <c r="R23" s="73"/>
+      <c r="S23" s="73"/>
+      <c r="T23" s="73"/>
+      <c r="U23" s="73"/>
+      <c r="V23" s="73"/>
+      <c r="W23" s="73"/>
+      <c r="X23" s="73"/>
+      <c r="Y23" s="73"/>
+      <c r="Z23" s="73"/>
+      <c r="AA23" s="73"/>
+      <c r="AB23" s="73"/>
+      <c r="AC23" s="73"/>
+      <c r="AD23" s="73"/>
+      <c r="AE23" s="73"/>
+      <c r="AF23" s="73"/>
+      <c r="AG23" s="73"/>
+      <c r="AH23" s="73"/>
+      <c r="AI23" s="73"/>
+      <c r="AJ23" s="73"/>
+      <c r="AK23" s="73"/>
+      <c r="AL23" s="73"/>
+      <c r="AM23" s="73"/>
+      <c r="AN23" s="73"/>
+      <c r="AO23" s="73"/>
+      <c r="AP23" s="73"/>
+      <c r="AQ23" s="73"/>
+      <c r="AR23" s="73"/>
+      <c r="AS23" s="73"/>
+      <c r="AT23" s="73"/>
+      <c r="AU23" s="73"/>
+      <c r="AV23" s="73"/>
+      <c r="AW23" s="73"/>
+      <c r="AX23" s="73"/>
+      <c r="AY23" s="73"/>
+      <c r="AZ23" s="73"/>
+      <c r="BA23" s="73"/>
+      <c r="BB23" s="73"/>
+      <c r="BC23" s="73"/>
+      <c r="BD23" s="73"/>
+      <c r="BE23" s="73"/>
+      <c r="BF23" s="73"/>
+      <c r="BG23" s="73"/>
+      <c r="BH23" s="73"/>
+      <c r="BI23" s="73"/>
+      <c r="BJ23" s="73"/>
+      <c r="BK23" s="73"/>
+      <c r="BL23" s="73"/>
+      <c r="BM23" s="73"/>
+      <c r="BN23" s="73"/>
+      <c r="BO23" s="73"/>
+      <c r="BP23" s="73"/>
+      <c r="BQ23" s="73"/>
+      <c r="BR23" s="73"/>
+      <c r="BS23" s="73"/>
+      <c r="BT23" s="73"/>
+      <c r="BU23" s="73"/>
+      <c r="BV23" s="73"/>
+      <c r="BW23" s="73"/>
+      <c r="BX23" s="73"/>
+      <c r="BY23" s="73"/>
+      <c r="BZ23" s="73"/>
+      <c r="CA23" s="73"/>
+      <c r="CB23" s="73"/>
+      <c r="CC23" s="73"/>
+      <c r="CD23" s="73"/>
+      <c r="CE23" s="73"/>
+      <c r="CF23" s="73"/>
+      <c r="CG23" s="73"/>
+      <c r="CH23" s="73"/>
+      <c r="CI23" s="73"/>
+      <c r="CJ23" s="73"/>
+      <c r="CK23" s="73"/>
+      <c r="CL23" s="73"/>
+      <c r="CM23" s="73"/>
+      <c r="CN23" s="73"/>
+      <c r="CO23" s="73"/>
+      <c r="CP23" s="73"/>
+      <c r="CQ23" s="73"/>
+      <c r="CR23" s="73"/>
+      <c r="CS23" s="73"/>
+      <c r="CT23" s="73"/>
+      <c r="CU23" s="73"/>
+      <c r="CV23" s="73"/>
+      <c r="CW23" s="73"/>
+      <c r="CX23" s="73"/>
+      <c r="CY23" s="73"/>
+      <c r="CZ23" s="73"/>
+      <c r="DA23" s="73"/>
+      <c r="DB23" s="73"/>
+      <c r="DC23" s="73"/>
+      <c r="DD23" s="73"/>
+      <c r="DE23" s="73"/>
+      <c r="DF23" s="73"/>
+      <c r="DG23" s="73"/>
+      <c r="DH23" s="73"/>
+      <c r="DI23" s="73"/>
+    </row>
+    <row r="24" spans="1:113" s="39" customFormat="1" ht="30" customHeight="1">
+      <c r="A24" s="6"/>
+      <c r="B24" s="74" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" s="75" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24" s="76">
+        <v>0</v>
+      </c>
+      <c r="E24" s="77">
+        <f>E22</f>
+        <v>45934</v>
+      </c>
+      <c r="F24" s="77">
+        <f>E24+10</f>
+        <v>45944</v>
+      </c>
+      <c r="G24" s="10"/>
+      <c r="H24" s="5">
+        <f t="shared" ca="1" si="62"/>
+        <v>11</v>
+      </c>
+      <c r="I24" s="44"/>
+      <c r="J24" s="44"/>
+      <c r="K24" s="44"/>
+      <c r="L24" s="44"/>
+      <c r="M24" s="44"/>
+      <c r="N24" s="44"/>
+      <c r="O24" s="44"/>
+      <c r="P24" s="44"/>
+      <c r="Q24" s="44"/>
+      <c r="R24" s="44"/>
+      <c r="S24" s="44"/>
+      <c r="T24" s="44"/>
+      <c r="U24" s="44"/>
+      <c r="V24" s="44"/>
+      <c r="W24" s="44"/>
+      <c r="X24" s="44"/>
+      <c r="Y24" s="44"/>
+      <c r="Z24" s="44"/>
+      <c r="AA24" s="44"/>
+      <c r="AB24" s="44"/>
+      <c r="AC24" s="44"/>
+      <c r="AD24" s="44"/>
+      <c r="AE24" s="44"/>
+      <c r="AF24" s="44"/>
+      <c r="AG24" s="44"/>
+      <c r="AH24" s="44"/>
+      <c r="AI24" s="44"/>
+      <c r="AJ24" s="44"/>
+      <c r="AK24" s="44"/>
+      <c r="AL24" s="44"/>
+      <c r="AM24" s="44"/>
+      <c r="AN24" s="44"/>
+      <c r="AO24" s="44"/>
+      <c r="AP24" s="44"/>
+      <c r="AQ24" s="44"/>
+      <c r="AR24" s="44"/>
+      <c r="AS24" s="44"/>
+      <c r="AT24" s="44"/>
+      <c r="AU24" s="44"/>
+      <c r="AV24" s="44"/>
+      <c r="AW24" s="44"/>
+      <c r="AX24" s="44"/>
+      <c r="AY24" s="44"/>
+      <c r="AZ24" s="44"/>
+      <c r="BA24" s="44"/>
+      <c r="BB24" s="44"/>
+      <c r="BC24" s="44"/>
+      <c r="BD24" s="44"/>
+      <c r="BE24" s="44"/>
+      <c r="BF24" s="44"/>
+      <c r="BG24" s="44"/>
+      <c r="BH24" s="44"/>
+      <c r="BI24" s="44"/>
+      <c r="BJ24" s="44"/>
+      <c r="BK24" s="44"/>
+      <c r="BL24" s="44"/>
+      <c r="BM24" s="44"/>
+      <c r="BN24" s="44"/>
+      <c r="BO24" s="44"/>
+      <c r="BP24" s="44"/>
+      <c r="BQ24" s="44"/>
+      <c r="BR24" s="44"/>
+      <c r="BS24" s="44"/>
+      <c r="BT24" s="44"/>
+      <c r="BU24" s="44"/>
+      <c r="BV24" s="44"/>
+      <c r="BW24" s="44"/>
+      <c r="BX24" s="44"/>
+      <c r="BY24" s="44"/>
+      <c r="BZ24" s="44"/>
+      <c r="CA24" s="44"/>
+      <c r="CB24" s="44"/>
+      <c r="CC24" s="44"/>
+      <c r="CD24" s="44"/>
+      <c r="CE24" s="44"/>
+      <c r="CF24" s="44"/>
+      <c r="CG24" s="44"/>
+      <c r="CH24" s="44"/>
+      <c r="CI24" s="44"/>
+      <c r="CJ24" s="44"/>
+      <c r="CK24" s="44"/>
+      <c r="CL24" s="44"/>
+      <c r="CM24" s="44"/>
+      <c r="CN24" s="44"/>
+      <c r="CO24" s="44"/>
+      <c r="CP24" s="44"/>
+      <c r="CQ24" s="44"/>
+      <c r="CR24" s="44"/>
+      <c r="CS24" s="44"/>
+      <c r="CT24" s="44"/>
+      <c r="CU24" s="44"/>
+      <c r="CV24" s="44"/>
+      <c r="CW24" s="44"/>
+      <c r="CX24" s="44"/>
+      <c r="CY24" s="44"/>
+      <c r="CZ24" s="44"/>
+      <c r="DA24" s="44"/>
+      <c r="DB24" s="44"/>
+      <c r="DC24" s="44"/>
+      <c r="DD24" s="44"/>
+      <c r="DE24" s="44"/>
+      <c r="DF24" s="44"/>
+      <c r="DG24" s="44"/>
+      <c r="DH24" s="44"/>
+      <c r="DI24" s="44"/>
+    </row>
+    <row r="25" spans="1:113" s="39" customFormat="1" ht="30" customHeight="1">
+      <c r="A25" s="6"/>
+      <c r="B25" s="74" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" s="75" t="s">
+        <v>10</v>
+      </c>
+      <c r="D25" s="76">
+        <v>0</v>
+      </c>
+      <c r="E25" s="77">
+        <f>F24</f>
+        <v>45944</v>
+      </c>
+      <c r="F25" s="77">
+        <f>E25+7</f>
+        <v>45951</v>
+      </c>
+      <c r="G25" s="10"/>
+      <c r="H25" s="5">
+        <f t="shared" ca="1" si="62"/>
+        <v>8</v>
+      </c>
+      <c r="I25" s="44"/>
+      <c r="J25" s="44"/>
+      <c r="K25" s="44"/>
+      <c r="L25" s="44"/>
+      <c r="M25" s="44"/>
+      <c r="N25" s="44"/>
+      <c r="O25" s="44"/>
+      <c r="P25" s="44"/>
+      <c r="Q25" s="44"/>
+      <c r="R25" s="44"/>
+      <c r="S25" s="44"/>
+      <c r="T25" s="44"/>
+      <c r="U25" s="44"/>
+      <c r="V25" s="44"/>
+      <c r="W25" s="44"/>
+      <c r="X25" s="44"/>
+      <c r="Y25" s="44"/>
+      <c r="Z25" s="44"/>
+      <c r="AA25" s="44"/>
+      <c r="AB25" s="44"/>
+      <c r="AC25" s="44"/>
+      <c r="AD25" s="44"/>
+      <c r="AE25" s="44"/>
+      <c r="AF25" s="44"/>
+      <c r="AG25" s="44"/>
+      <c r="AH25" s="44"/>
+      <c r="AI25" s="44"/>
+      <c r="AJ25" s="44"/>
+      <c r="AK25" s="44"/>
+      <c r="AL25" s="44"/>
+      <c r="AM25" s="44"/>
+      <c r="AN25" s="44"/>
+      <c r="AO25" s="44"/>
+      <c r="AP25" s="44"/>
+      <c r="AQ25" s="44"/>
+      <c r="AR25" s="44"/>
+      <c r="AS25" s="44"/>
+      <c r="AT25" s="44"/>
+      <c r="AU25" s="44"/>
+      <c r="AV25" s="44"/>
+      <c r="AW25" s="44"/>
+      <c r="AX25" s="44"/>
+      <c r="AY25" s="44"/>
+      <c r="AZ25" s="44"/>
+      <c r="BA25" s="44"/>
+      <c r="BB25" s="44"/>
+      <c r="BC25" s="44"/>
+      <c r="BD25" s="44"/>
+      <c r="BE25" s="44"/>
+      <c r="BF25" s="44"/>
+      <c r="BG25" s="44"/>
+      <c r="BH25" s="44"/>
+      <c r="BI25" s="44"/>
+      <c r="BJ25" s="44"/>
+      <c r="BK25" s="44"/>
+      <c r="BL25" s="44"/>
+      <c r="BM25" s="44"/>
+      <c r="BN25" s="44"/>
+      <c r="BO25" s="44"/>
+      <c r="BP25" s="44"/>
+      <c r="BQ25" s="44"/>
+      <c r="BR25" s="44"/>
+      <c r="BS25" s="44"/>
+      <c r="BT25" s="44"/>
+      <c r="BU25" s="44"/>
+      <c r="BV25" s="44"/>
+      <c r="BW25" s="44"/>
+      <c r="BX25" s="44"/>
+      <c r="BY25" s="44"/>
+      <c r="BZ25" s="44"/>
+      <c r="CA25" s="44"/>
+      <c r="CB25" s="44"/>
+      <c r="CC25" s="44"/>
+      <c r="CD25" s="44"/>
+      <c r="CE25" s="44"/>
+      <c r="CF25" s="44"/>
+      <c r="CG25" s="44"/>
+      <c r="CH25" s="44"/>
+      <c r="CI25" s="44"/>
+      <c r="CJ25" s="44"/>
+      <c r="CK25" s="44"/>
+      <c r="CL25" s="44"/>
+      <c r="CM25" s="44"/>
+      <c r="CN25" s="44"/>
+      <c r="CO25" s="44"/>
+      <c r="CP25" s="44"/>
+      <c r="CQ25" s="44"/>
+      <c r="CR25" s="44"/>
+      <c r="CS25" s="44"/>
+      <c r="CT25" s="44"/>
+      <c r="CU25" s="44"/>
+      <c r="CV25" s="44"/>
+      <c r="CW25" s="44"/>
+      <c r="CX25" s="44"/>
+      <c r="CY25" s="44"/>
+      <c r="CZ25" s="44"/>
+      <c r="DA25" s="44"/>
+      <c r="DB25" s="44"/>
+      <c r="DC25" s="44"/>
+      <c r="DD25" s="44"/>
+      <c r="DE25" s="44"/>
+      <c r="DF25" s="44"/>
+      <c r="DG25" s="44"/>
+      <c r="DH25" s="44"/>
+      <c r="DI25" s="44"/>
+    </row>
+    <row r="26" spans="1:113" s="39" customFormat="1" ht="30" customHeight="1">
+      <c r="A26" s="6"/>
+      <c r="B26" s="74" t="s">
+        <v>27</v>
+      </c>
+      <c r="C26" s="75" t="s">
+        <v>10</v>
+      </c>
+      <c r="D26" s="76">
+        <v>0</v>
+      </c>
+      <c r="E26" s="77">
+        <f>F25+1</f>
+        <v>45952</v>
+      </c>
+      <c r="F26" s="77">
+        <f>E26+3</f>
+        <v>45955</v>
+      </c>
+      <c r="G26" s="10"/>
+      <c r="H26" s="5">
+        <f t="shared" ca="1" si="62"/>
         <v>4</v>
       </c>
-      <c r="I17" s="39"/>
-      <c r="J17" s="39"/>
-      <c r="K17" s="39"/>
-      <c r="L17" s="39"/>
-      <c r="M17" s="39"/>
-      <c r="N17" s="39"/>
-      <c r="O17" s="39"/>
-      <c r="P17" s="39"/>
-      <c r="Q17" s="39"/>
-      <c r="R17" s="39"/>
-      <c r="S17" s="39"/>
-      <c r="T17" s="39"/>
-      <c r="U17" s="39"/>
-      <c r="V17" s="39"/>
-      <c r="W17" s="39"/>
-      <c r="X17" s="39"/>
-      <c r="Y17" s="39"/>
-      <c r="Z17" s="39"/>
-      <c r="AA17" s="39"/>
-      <c r="AB17" s="39"/>
-      <c r="AC17" s="39"/>
-      <c r="AD17" s="39"/>
-      <c r="AE17" s="39"/>
-      <c r="AF17" s="39"/>
-      <c r="AG17" s="39"/>
-      <c r="AH17" s="39"/>
-      <c r="AI17" s="39"/>
-      <c r="AJ17" s="39"/>
-      <c r="AK17" s="39"/>
-      <c r="AL17" s="39"/>
-      <c r="AM17" s="39"/>
-      <c r="AN17" s="39"/>
-      <c r="AO17" s="39"/>
-      <c r="AP17" s="39"/>
-      <c r="AQ17" s="39"/>
-      <c r="AR17" s="39"/>
-      <c r="AS17" s="39"/>
-      <c r="AT17" s="39"/>
-      <c r="AU17" s="39"/>
-      <c r="AV17" s="39"/>
-      <c r="AW17" s="39"/>
-      <c r="AX17" s="39"/>
-      <c r="AY17" s="39"/>
-      <c r="AZ17" s="39"/>
-      <c r="BA17" s="39"/>
-      <c r="BB17" s="39"/>
-      <c r="BC17" s="39"/>
-      <c r="BD17" s="39"/>
-      <c r="BE17" s="39"/>
-      <c r="BF17" s="39"/>
-      <c r="BG17" s="39"/>
-      <c r="BH17" s="39"/>
-      <c r="BI17" s="39"/>
-      <c r="BJ17" s="39"/>
-      <c r="BK17" s="39"/>
-      <c r="BL17" s="39"/>
+      <c r="I26" s="44"/>
+      <c r="J26" s="44"/>
+      <c r="K26" s="44"/>
+      <c r="L26" s="44"/>
+      <c r="M26" s="44"/>
+      <c r="N26" s="44"/>
+      <c r="O26" s="44"/>
+      <c r="P26" s="44"/>
+      <c r="Q26" s="44"/>
+      <c r="R26" s="44"/>
+      <c r="S26" s="44"/>
+      <c r="T26" s="44"/>
+      <c r="U26" s="44"/>
+      <c r="V26" s="44"/>
+      <c r="W26" s="44"/>
+      <c r="X26" s="44"/>
+      <c r="Y26" s="44"/>
+      <c r="Z26" s="44"/>
+      <c r="AA26" s="44"/>
+      <c r="AB26" s="44"/>
+      <c r="AC26" s="44"/>
+      <c r="AD26" s="44"/>
+      <c r="AE26" s="44"/>
+      <c r="AF26" s="44"/>
+      <c r="AG26" s="44"/>
+      <c r="AH26" s="44"/>
+      <c r="AI26" s="44"/>
+      <c r="AJ26" s="44"/>
+      <c r="AK26" s="44"/>
+      <c r="AL26" s="44"/>
+      <c r="AM26" s="44"/>
+      <c r="AN26" s="44"/>
+      <c r="AO26" s="44"/>
+      <c r="AP26" s="44"/>
+      <c r="AQ26" s="44"/>
+      <c r="AR26" s="44"/>
+      <c r="AS26" s="44"/>
+      <c r="AT26" s="44"/>
+      <c r="AU26" s="44"/>
+      <c r="AV26" s="44"/>
+      <c r="AW26" s="44"/>
+      <c r="AX26" s="44"/>
+      <c r="AY26" s="44"/>
+      <c r="AZ26" s="44"/>
+      <c r="BA26" s="44"/>
+      <c r="BB26" s="44"/>
+      <c r="BC26" s="44"/>
+      <c r="BD26" s="44"/>
+      <c r="BE26" s="44"/>
+      <c r="BF26" s="44"/>
+      <c r="BG26" s="44"/>
+      <c r="BH26" s="44"/>
+      <c r="BI26" s="44"/>
+      <c r="BJ26" s="44"/>
+      <c r="BK26" s="44"/>
+      <c r="BL26" s="44"/>
+      <c r="BM26" s="44"/>
+      <c r="BN26" s="44"/>
+      <c r="BO26" s="44"/>
+      <c r="BP26" s="44"/>
+      <c r="BQ26" s="44"/>
+      <c r="BR26" s="44"/>
+      <c r="BS26" s="44"/>
+      <c r="BT26" s="44"/>
+      <c r="BU26" s="44"/>
+      <c r="BV26" s="44"/>
+      <c r="BW26" s="44"/>
+      <c r="BX26" s="44"/>
+      <c r="BY26" s="44"/>
+      <c r="BZ26" s="44"/>
+      <c r="CA26" s="44"/>
+      <c r="CB26" s="44"/>
+      <c r="CC26" s="44"/>
+      <c r="CD26" s="44"/>
+      <c r="CE26" s="44"/>
+      <c r="CF26" s="44"/>
+      <c r="CG26" s="44"/>
+      <c r="CH26" s="44"/>
+      <c r="CI26" s="44"/>
+      <c r="CJ26" s="44"/>
+      <c r="CK26" s="44"/>
+      <c r="CL26" s="44"/>
+      <c r="CM26" s="44"/>
+      <c r="CN26" s="44"/>
+      <c r="CO26" s="44"/>
+      <c r="CP26" s="44"/>
+      <c r="CQ26" s="44"/>
+      <c r="CR26" s="44"/>
+      <c r="CS26" s="44"/>
+      <c r="CT26" s="44"/>
+      <c r="CU26" s="44"/>
+      <c r="CV26" s="44"/>
+      <c r="CW26" s="44"/>
+      <c r="CX26" s="44"/>
+      <c r="CY26" s="44"/>
+      <c r="CZ26" s="44"/>
+      <c r="DA26" s="44"/>
+      <c r="DB26" s="44"/>
+      <c r="DC26" s="44"/>
+      <c r="DD26" s="44"/>
+      <c r="DE26" s="44"/>
+      <c r="DF26" s="44"/>
+      <c r="DG26" s="44"/>
+      <c r="DH26" s="44"/>
+      <c r="DI26" s="44"/>
     </row>
-    <row r="18" spans="1:64" s="34" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="6"/>
-      <c r="B18" s="47"/>
-      <c r="C18" s="48"/>
-      <c r="D18" s="49"/>
-      <c r="E18" s="50"/>
-      <c r="F18" s="50"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="5" t="str">
-        <f t="shared" si="5"/>
+    <row r="27" spans="1:113" s="39" customFormat="1" ht="30" customHeight="1">
+      <c r="A27" s="6"/>
+      <c r="B27" s="74" t="s">
+        <v>28</v>
+      </c>
+      <c r="C27" s="75" t="s">
+        <v>10</v>
+      </c>
+      <c r="D27" s="76">
+        <v>0</v>
+      </c>
+      <c r="E27" s="77">
+        <f>E24+5</f>
+        <v>45939</v>
+      </c>
+      <c r="F27" s="77">
+        <f>E27+14</f>
+        <v>45953</v>
+      </c>
+      <c r="G27" s="10"/>
+      <c r="H27" s="5">
+        <f t="shared" ca="1" si="62"/>
+        <v>15</v>
+      </c>
+      <c r="I27" s="44"/>
+      <c r="J27" s="44"/>
+      <c r="K27" s="44"/>
+      <c r="L27" s="44"/>
+      <c r="M27" s="44"/>
+      <c r="N27" s="44"/>
+      <c r="O27" s="44"/>
+      <c r="P27" s="44"/>
+      <c r="Q27" s="44"/>
+      <c r="R27" s="44"/>
+      <c r="S27" s="44"/>
+      <c r="T27" s="44"/>
+      <c r="U27" s="44"/>
+      <c r="V27" s="44"/>
+      <c r="W27" s="44"/>
+      <c r="X27" s="44"/>
+      <c r="Y27" s="44"/>
+      <c r="Z27" s="44"/>
+      <c r="AA27" s="44"/>
+      <c r="AB27" s="44"/>
+      <c r="AC27" s="44"/>
+      <c r="AD27" s="44"/>
+      <c r="AE27" s="44"/>
+      <c r="AF27" s="44"/>
+      <c r="AG27" s="44"/>
+      <c r="AH27" s="44"/>
+      <c r="AI27" s="44"/>
+      <c r="AJ27" s="44"/>
+      <c r="AK27" s="44"/>
+      <c r="AL27" s="44"/>
+      <c r="AM27" s="44"/>
+      <c r="AN27" s="44"/>
+      <c r="AO27" s="44"/>
+      <c r="AP27" s="44"/>
+      <c r="AQ27" s="44"/>
+      <c r="AR27" s="44"/>
+      <c r="AS27" s="44"/>
+      <c r="AT27" s="44"/>
+      <c r="AU27" s="44"/>
+      <c r="AV27" s="44"/>
+      <c r="AW27" s="44"/>
+      <c r="AX27" s="44"/>
+      <c r="AY27" s="44"/>
+      <c r="AZ27" s="44"/>
+      <c r="BA27" s="44"/>
+      <c r="BB27" s="44"/>
+      <c r="BC27" s="44"/>
+      <c r="BD27" s="44"/>
+      <c r="BE27" s="44"/>
+      <c r="BF27" s="44"/>
+      <c r="BG27" s="44"/>
+      <c r="BH27" s="44"/>
+      <c r="BI27" s="44"/>
+      <c r="BJ27" s="44"/>
+      <c r="BK27" s="44"/>
+      <c r="BL27" s="44"/>
+      <c r="BM27" s="44"/>
+      <c r="BN27" s="44"/>
+      <c r="BO27" s="44"/>
+      <c r="BP27" s="44"/>
+      <c r="BQ27" s="44"/>
+      <c r="BR27" s="44"/>
+      <c r="BS27" s="44"/>
+      <c r="BT27" s="44"/>
+      <c r="BU27" s="44"/>
+      <c r="BV27" s="44"/>
+      <c r="BW27" s="44"/>
+      <c r="BX27" s="44"/>
+      <c r="BY27" s="44"/>
+      <c r="BZ27" s="44"/>
+      <c r="CA27" s="44"/>
+      <c r="CB27" s="44"/>
+      <c r="CC27" s="44"/>
+      <c r="CD27" s="44"/>
+      <c r="CE27" s="44"/>
+      <c r="CF27" s="44"/>
+      <c r="CG27" s="44"/>
+      <c r="CH27" s="44"/>
+      <c r="CI27" s="44"/>
+      <c r="CJ27" s="44"/>
+      <c r="CK27" s="44"/>
+      <c r="CL27" s="44"/>
+      <c r="CM27" s="44"/>
+      <c r="CN27" s="44"/>
+      <c r="CO27" s="44"/>
+      <c r="CP27" s="44"/>
+      <c r="CQ27" s="44"/>
+      <c r="CR27" s="44"/>
+      <c r="CS27" s="44"/>
+      <c r="CT27" s="44"/>
+      <c r="CU27" s="44"/>
+      <c r="CV27" s="44"/>
+      <c r="CW27" s="44"/>
+      <c r="CX27" s="44"/>
+      <c r="CY27" s="44"/>
+      <c r="CZ27" s="44"/>
+      <c r="DA27" s="44"/>
+      <c r="DB27" s="44"/>
+      <c r="DC27" s="44"/>
+      <c r="DD27" s="44"/>
+      <c r="DE27" s="44"/>
+      <c r="DF27" s="44"/>
+      <c r="DG27" s="44"/>
+      <c r="DH27" s="44"/>
+      <c r="DI27" s="44"/>
+    </row>
+    <row r="28" spans="1:113" s="39" customFormat="1" ht="30" customHeight="1">
+      <c r="A28" s="6"/>
+      <c r="B28" s="74" t="s">
+        <v>29</v>
+      </c>
+      <c r="C28" s="75" t="s">
+        <v>10</v>
+      </c>
+      <c r="D28" s="76">
+        <v>0</v>
+      </c>
+      <c r="E28" s="77">
+        <f>E24+7</f>
+        <v>45941</v>
+      </c>
+      <c r="F28" s="77">
+        <f>E28+5</f>
+        <v>45946</v>
+      </c>
+      <c r="G28" s="10"/>
+      <c r="H28" s="5">
+        <f t="shared" ca="1" si="62"/>
+        <v>6</v>
+      </c>
+      <c r="I28" s="44"/>
+      <c r="J28" s="44"/>
+      <c r="K28" s="44"/>
+      <c r="L28" s="44"/>
+      <c r="M28" s="44"/>
+      <c r="N28" s="44"/>
+      <c r="O28" s="44"/>
+      <c r="P28" s="44"/>
+      <c r="Q28" s="44"/>
+      <c r="R28" s="44"/>
+      <c r="S28" s="44"/>
+      <c r="T28" s="44"/>
+      <c r="U28" s="44"/>
+      <c r="V28" s="44"/>
+      <c r="W28" s="44"/>
+      <c r="X28" s="44"/>
+      <c r="Y28" s="44"/>
+      <c r="Z28" s="44"/>
+      <c r="AA28" s="44"/>
+      <c r="AB28" s="44"/>
+      <c r="AC28" s="44"/>
+      <c r="AD28" s="44"/>
+      <c r="AE28" s="44"/>
+      <c r="AF28" s="44"/>
+      <c r="AG28" s="44"/>
+      <c r="AH28" s="44"/>
+      <c r="AI28" s="44"/>
+      <c r="AJ28" s="44"/>
+      <c r="AK28" s="44"/>
+      <c r="AL28" s="44"/>
+      <c r="AM28" s="44"/>
+      <c r="AN28" s="44"/>
+      <c r="AO28" s="44"/>
+      <c r="AP28" s="44"/>
+      <c r="AQ28" s="44"/>
+      <c r="AR28" s="44"/>
+      <c r="AS28" s="44"/>
+      <c r="AT28" s="44"/>
+      <c r="AU28" s="44"/>
+      <c r="AV28" s="44"/>
+      <c r="AW28" s="44"/>
+      <c r="AX28" s="44"/>
+      <c r="AY28" s="44"/>
+      <c r="AZ28" s="44"/>
+      <c r="BA28" s="44"/>
+      <c r="BB28" s="44"/>
+      <c r="BC28" s="44"/>
+      <c r="BD28" s="44"/>
+      <c r="BE28" s="44"/>
+      <c r="BF28" s="44"/>
+      <c r="BG28" s="44"/>
+      <c r="BH28" s="44"/>
+      <c r="BI28" s="44"/>
+      <c r="BJ28" s="44"/>
+      <c r="BK28" s="44"/>
+      <c r="BL28" s="44"/>
+      <c r="BM28" s="44"/>
+      <c r="BN28" s="44"/>
+      <c r="BO28" s="44"/>
+      <c r="BP28" s="44"/>
+      <c r="BQ28" s="44"/>
+      <c r="BR28" s="44"/>
+      <c r="BS28" s="44"/>
+      <c r="BT28" s="44"/>
+      <c r="BU28" s="44"/>
+      <c r="BV28" s="44"/>
+      <c r="BW28" s="44"/>
+      <c r="BX28" s="44"/>
+      <c r="BY28" s="44"/>
+      <c r="BZ28" s="44"/>
+      <c r="CA28" s="44"/>
+      <c r="CB28" s="44"/>
+      <c r="CC28" s="44"/>
+      <c r="CD28" s="44"/>
+      <c r="CE28" s="44"/>
+      <c r="CF28" s="44"/>
+      <c r="CG28" s="44"/>
+      <c r="CH28" s="44"/>
+      <c r="CI28" s="44"/>
+      <c r="CJ28" s="44"/>
+      <c r="CK28" s="44"/>
+      <c r="CL28" s="44"/>
+      <c r="CM28" s="44"/>
+      <c r="CN28" s="44"/>
+      <c r="CO28" s="44"/>
+      <c r="CP28" s="44"/>
+      <c r="CQ28" s="44"/>
+      <c r="CR28" s="44"/>
+      <c r="CS28" s="44"/>
+      <c r="CT28" s="44"/>
+      <c r="CU28" s="44"/>
+      <c r="CV28" s="44"/>
+      <c r="CW28" s="44"/>
+      <c r="CX28" s="44"/>
+      <c r="CY28" s="44"/>
+      <c r="CZ28" s="44"/>
+      <c r="DA28" s="44"/>
+      <c r="DB28" s="44"/>
+      <c r="DC28" s="44"/>
+      <c r="DD28" s="44"/>
+      <c r="DE28" s="44"/>
+      <c r="DF28" s="44"/>
+      <c r="DG28" s="44"/>
+      <c r="DH28" s="44"/>
+      <c r="DI28" s="44"/>
+    </row>
+    <row r="29" spans="1:113" s="39" customFormat="1" ht="30" customHeight="1">
+      <c r="A29" s="6"/>
+      <c r="B29" s="93" t="s">
+        <v>30</v>
+      </c>
+      <c r="C29" s="75" t="s">
+        <v>10</v>
+      </c>
+      <c r="D29" s="94">
+        <v>0</v>
+      </c>
+      <c r="E29" s="77">
+        <f>E25+7</f>
+        <v>45951</v>
+      </c>
+      <c r="F29" s="77">
+        <f>E29+7</f>
+        <v>45958</v>
+      </c>
+      <c r="G29" s="10"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="38"/>
+      <c r="J29" s="38"/>
+      <c r="K29" s="38"/>
+      <c r="L29" s="38"/>
+      <c r="M29" s="38"/>
+      <c r="N29" s="38"/>
+      <c r="O29" s="38"/>
+      <c r="P29" s="38"/>
+      <c r="Q29" s="38"/>
+      <c r="R29" s="38"/>
+      <c r="S29" s="38"/>
+      <c r="T29" s="38"/>
+      <c r="U29" s="38"/>
+      <c r="V29" s="38"/>
+      <c r="W29" s="38"/>
+      <c r="X29" s="38"/>
+      <c r="Y29" s="38"/>
+      <c r="Z29" s="38"/>
+      <c r="AA29" s="38"/>
+      <c r="AB29" s="38"/>
+      <c r="AC29" s="38"/>
+      <c r="AD29" s="38"/>
+      <c r="AE29" s="38"/>
+      <c r="AF29" s="38"/>
+      <c r="AG29" s="38"/>
+      <c r="AH29" s="38"/>
+      <c r="AI29" s="38"/>
+      <c r="AJ29" s="38"/>
+      <c r="AK29" s="38"/>
+      <c r="AL29" s="38"/>
+      <c r="AM29" s="38"/>
+      <c r="AN29" s="38"/>
+      <c r="AO29" s="38"/>
+      <c r="AP29" s="38"/>
+      <c r="AQ29" s="38"/>
+      <c r="AR29" s="38"/>
+      <c r="AS29" s="38"/>
+      <c r="AT29" s="38"/>
+      <c r="AU29" s="38"/>
+      <c r="AV29" s="38"/>
+      <c r="AW29" s="38"/>
+      <c r="AX29" s="38"/>
+      <c r="AY29" s="38"/>
+      <c r="AZ29" s="38"/>
+      <c r="BA29" s="38"/>
+      <c r="BB29" s="38"/>
+      <c r="BC29" s="38"/>
+      <c r="BD29" s="38"/>
+      <c r="BE29" s="38"/>
+      <c r="BF29" s="38"/>
+      <c r="BG29" s="38"/>
+      <c r="BH29" s="38"/>
+      <c r="BI29" s="38"/>
+      <c r="BJ29" s="38"/>
+      <c r="BK29" s="38"/>
+      <c r="BL29" s="38"/>
+      <c r="BM29" s="38"/>
+      <c r="BN29" s="38"/>
+      <c r="BO29" s="38"/>
+      <c r="BP29" s="38"/>
+      <c r="BQ29" s="38"/>
+      <c r="BR29" s="38"/>
+      <c r="BS29" s="38"/>
+      <c r="BT29" s="38"/>
+      <c r="BU29" s="38"/>
+      <c r="BV29" s="38"/>
+      <c r="BW29" s="38"/>
+      <c r="BX29" s="38"/>
+      <c r="BY29" s="38"/>
+      <c r="BZ29" s="38"/>
+      <c r="CA29" s="38"/>
+      <c r="CB29" s="38"/>
+      <c r="CC29" s="38"/>
+      <c r="CD29" s="38"/>
+      <c r="CE29" s="38"/>
+      <c r="CF29" s="38"/>
+      <c r="CG29" s="38"/>
+      <c r="CH29" s="38"/>
+      <c r="CI29" s="38"/>
+      <c r="CJ29" s="38"/>
+      <c r="CK29" s="38"/>
+      <c r="CL29" s="38"/>
+      <c r="CM29" s="38"/>
+      <c r="CN29" s="38"/>
+      <c r="CO29" s="38"/>
+      <c r="CP29" s="38"/>
+      <c r="CQ29" s="38"/>
+      <c r="CR29" s="38"/>
+      <c r="CS29" s="38"/>
+      <c r="CT29" s="38"/>
+      <c r="CU29" s="38"/>
+      <c r="CV29" s="38"/>
+      <c r="CW29" s="38"/>
+      <c r="CX29" s="38"/>
+      <c r="CY29" s="38"/>
+      <c r="CZ29" s="38"/>
+      <c r="DA29" s="38"/>
+      <c r="DB29" s="38"/>
+      <c r="DC29" s="38"/>
+      <c r="DD29" s="38"/>
+      <c r="DE29" s="38"/>
+      <c r="DF29" s="38"/>
+      <c r="DG29" s="38"/>
+      <c r="DH29" s="38"/>
+      <c r="DI29" s="38"/>
+    </row>
+    <row r="30" spans="1:113" s="39" customFormat="1" ht="30" customHeight="1">
+      <c r="A30" s="6"/>
+      <c r="B30" s="93" t="s">
+        <v>31</v>
+      </c>
+      <c r="C30" s="75" t="s">
+        <v>10</v>
+      </c>
+      <c r="D30" s="94">
+        <v>0</v>
+      </c>
+      <c r="E30" s="95">
+        <f>E25</f>
+        <v>45944</v>
+      </c>
+      <c r="F30" s="95">
+        <f>E30+30</f>
+        <v>45974</v>
+      </c>
+      <c r="G30" s="10"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="38"/>
+      <c r="J30" s="38"/>
+      <c r="K30" s="38"/>
+      <c r="L30" s="38"/>
+      <c r="M30" s="38"/>
+      <c r="N30" s="38"/>
+      <c r="O30" s="38"/>
+      <c r="P30" s="38"/>
+      <c r="Q30" s="38"/>
+      <c r="R30" s="38"/>
+      <c r="S30" s="38"/>
+      <c r="T30" s="38"/>
+      <c r="U30" s="38"/>
+      <c r="V30" s="38"/>
+      <c r="W30" s="38"/>
+      <c r="X30" s="38"/>
+      <c r="Y30" s="38"/>
+      <c r="Z30" s="38"/>
+      <c r="AA30" s="38"/>
+      <c r="AB30" s="38"/>
+      <c r="AC30" s="38"/>
+      <c r="AD30" s="38"/>
+      <c r="AE30" s="38"/>
+      <c r="AF30" s="38"/>
+      <c r="AG30" s="38"/>
+      <c r="AH30" s="38"/>
+      <c r="AI30" s="38"/>
+      <c r="AJ30" s="38"/>
+      <c r="AK30" s="38"/>
+      <c r="AL30" s="38"/>
+      <c r="AM30" s="38"/>
+      <c r="AN30" s="38"/>
+      <c r="AO30" s="38"/>
+      <c r="AP30" s="38"/>
+      <c r="AQ30" s="38"/>
+      <c r="AR30" s="38"/>
+      <c r="AS30" s="38"/>
+      <c r="AT30" s="38"/>
+      <c r="AU30" s="38"/>
+      <c r="AV30" s="38"/>
+      <c r="AW30" s="38"/>
+      <c r="AX30" s="38"/>
+      <c r="AY30" s="38"/>
+      <c r="AZ30" s="38"/>
+      <c r="BA30" s="38"/>
+      <c r="BB30" s="38"/>
+      <c r="BC30" s="38"/>
+      <c r="BD30" s="38"/>
+      <c r="BE30" s="38"/>
+      <c r="BF30" s="38"/>
+      <c r="BG30" s="38"/>
+      <c r="BH30" s="38"/>
+      <c r="BI30" s="38"/>
+      <c r="BJ30" s="38"/>
+      <c r="BK30" s="38"/>
+      <c r="BL30" s="38"/>
+      <c r="BM30" s="38"/>
+      <c r="BN30" s="38"/>
+      <c r="BO30" s="38"/>
+      <c r="BP30" s="38"/>
+      <c r="BQ30" s="38"/>
+      <c r="BR30" s="38"/>
+      <c r="BS30" s="38"/>
+      <c r="BT30" s="38"/>
+      <c r="BU30" s="38"/>
+      <c r="BV30" s="38"/>
+      <c r="BW30" s="38"/>
+      <c r="BX30" s="38"/>
+      <c r="BY30" s="38"/>
+      <c r="BZ30" s="38"/>
+      <c r="CA30" s="38"/>
+      <c r="CB30" s="38"/>
+      <c r="CC30" s="38"/>
+      <c r="CD30" s="38"/>
+      <c r="CE30" s="38"/>
+      <c r="CF30" s="38"/>
+      <c r="CG30" s="38"/>
+      <c r="CH30" s="38"/>
+      <c r="CI30" s="38"/>
+      <c r="CJ30" s="38"/>
+      <c r="CK30" s="38"/>
+      <c r="CL30" s="38"/>
+      <c r="CM30" s="38"/>
+      <c r="CN30" s="38"/>
+      <c r="CO30" s="38"/>
+      <c r="CP30" s="38"/>
+      <c r="CQ30" s="38"/>
+      <c r="CR30" s="38"/>
+      <c r="CS30" s="38"/>
+      <c r="CT30" s="38"/>
+      <c r="CU30" s="38"/>
+      <c r="CV30" s="38"/>
+      <c r="CW30" s="38"/>
+      <c r="CX30" s="38"/>
+      <c r="CY30" s="38"/>
+      <c r="CZ30" s="38"/>
+      <c r="DA30" s="38"/>
+      <c r="DB30" s="38"/>
+      <c r="DC30" s="38"/>
+      <c r="DD30" s="38"/>
+      <c r="DE30" s="38"/>
+      <c r="DF30" s="38"/>
+      <c r="DG30" s="38"/>
+      <c r="DH30" s="38"/>
+      <c r="DI30" s="38"/>
+    </row>
+    <row r="31" spans="1:113" s="39" customFormat="1" ht="30" customHeight="1">
+      <c r="A31" s="6"/>
+      <c r="B31" s="78"/>
+      <c r="C31" s="79"/>
+      <c r="D31" s="80"/>
+      <c r="E31" s="81"/>
+      <c r="F31" s="81"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="5" t="str">
+        <f t="shared" ca="1" si="62"/>
         <v/>
       </c>
-      <c r="I18" s="33"/>
-      <c r="J18" s="33"/>
-      <c r="K18" s="33"/>
-      <c r="L18" s="33"/>
-      <c r="M18" s="33"/>
-      <c r="N18" s="33"/>
-      <c r="O18" s="33"/>
-      <c r="P18" s="33"/>
-      <c r="Q18" s="33"/>
-      <c r="R18" s="33"/>
-      <c r="S18" s="33"/>
-      <c r="T18" s="33"/>
-      <c r="U18" s="33"/>
-      <c r="V18" s="33"/>
-      <c r="W18" s="33"/>
-      <c r="X18" s="33"/>
-      <c r="Y18" s="33"/>
-      <c r="Z18" s="33"/>
-      <c r="AA18" s="33"/>
-      <c r="AB18" s="33"/>
-      <c r="AC18" s="33"/>
-      <c r="AD18" s="33"/>
-      <c r="AE18" s="33"/>
-      <c r="AF18" s="33"/>
-      <c r="AG18" s="33"/>
-      <c r="AH18" s="33"/>
-      <c r="AI18" s="33"/>
-      <c r="AJ18" s="33"/>
-      <c r="AK18" s="33"/>
-      <c r="AL18" s="33"/>
-      <c r="AM18" s="33"/>
-      <c r="AN18" s="33"/>
-      <c r="AO18" s="33"/>
-      <c r="AP18" s="33"/>
-      <c r="AQ18" s="33"/>
-      <c r="AR18" s="33"/>
-      <c r="AS18" s="33"/>
-      <c r="AT18" s="33"/>
-      <c r="AU18" s="33"/>
-      <c r="AV18" s="33"/>
-      <c r="AW18" s="33"/>
-      <c r="AX18" s="33"/>
-      <c r="AY18" s="33"/>
-      <c r="AZ18" s="33"/>
-      <c r="BA18" s="33"/>
-      <c r="BB18" s="33"/>
-      <c r="BC18" s="33"/>
-      <c r="BD18" s="33"/>
-      <c r="BE18" s="33"/>
-      <c r="BF18" s="33"/>
-      <c r="BG18" s="33"/>
-      <c r="BH18" s="33"/>
-      <c r="BI18" s="33"/>
-      <c r="BJ18" s="33"/>
-      <c r="BK18" s="33"/>
-      <c r="BL18" s="33"/>
+      <c r="I31" s="38"/>
+      <c r="J31" s="38"/>
+      <c r="K31" s="38"/>
+      <c r="L31" s="38"/>
+      <c r="M31" s="38"/>
+      <c r="N31" s="38"/>
+      <c r="O31" s="38"/>
+      <c r="P31" s="38"/>
+      <c r="Q31" s="38"/>
+      <c r="R31" s="38"/>
+      <c r="S31" s="38"/>
+      <c r="T31" s="38"/>
+      <c r="U31" s="38"/>
+      <c r="V31" s="38"/>
+      <c r="W31" s="38"/>
+      <c r="X31" s="38"/>
+      <c r="Y31" s="38"/>
+      <c r="Z31" s="38"/>
+      <c r="AA31" s="38"/>
+      <c r="AB31" s="38"/>
+      <c r="AC31" s="38"/>
+      <c r="AD31" s="38"/>
+      <c r="AE31" s="38"/>
+      <c r="AF31" s="38"/>
+      <c r="AG31" s="38"/>
+      <c r="AH31" s="38"/>
+      <c r="AI31" s="38"/>
+      <c r="AJ31" s="38"/>
+      <c r="AK31" s="38"/>
+      <c r="AL31" s="38"/>
+      <c r="AM31" s="38"/>
+      <c r="AN31" s="38"/>
+      <c r="AO31" s="38"/>
+      <c r="AP31" s="38"/>
+      <c r="AQ31" s="38"/>
+      <c r="AR31" s="38"/>
+      <c r="AS31" s="38"/>
+      <c r="AT31" s="38"/>
+      <c r="AU31" s="38"/>
+      <c r="AV31" s="38"/>
+      <c r="AW31" s="38"/>
+      <c r="AX31" s="38"/>
+      <c r="AY31" s="38"/>
+      <c r="AZ31" s="38"/>
+      <c r="BA31" s="38"/>
+      <c r="BB31" s="38"/>
+      <c r="BC31" s="38"/>
+      <c r="BD31" s="38"/>
+      <c r="BE31" s="38"/>
+      <c r="BF31" s="38"/>
+      <c r="BG31" s="38"/>
+      <c r="BH31" s="38"/>
+      <c r="BI31" s="38"/>
+      <c r="BJ31" s="38"/>
+      <c r="BK31" s="38"/>
+      <c r="BL31" s="38"/>
     </row>
-    <row r="19" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G19" s="3"/>
+    <row r="32" spans="1:113" ht="30" customHeight="1">
+      <c r="G32" s="3"/>
     </row>
-    <row r="20" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C20" s="9"/>
-      <c r="F20" s="8"/>
+    <row r="33" spans="3:6" ht="30" customHeight="1">
+      <c r="C33" s="9"/>
+      <c r="F33" s="8"/>
     </row>
-    <row r="21" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C21" s="4"/>
+    <row r="34" spans="3:6" ht="30" customHeight="1">
+      <c r="C34" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="18">
+  <mergeCells count="25">
+    <mergeCell ref="CV4:DB4"/>
+    <mergeCell ref="DC4:DI4"/>
+    <mergeCell ref="BM4:BS4"/>
+    <mergeCell ref="BT4:BZ4"/>
+    <mergeCell ref="CA4:CG4"/>
+    <mergeCell ref="CH4:CN4"/>
+    <mergeCell ref="CO4:CU4"/>
     <mergeCell ref="BF4:BL4"/>
     <mergeCell ref="I4:O4"/>
     <mergeCell ref="P4:V4"/>
@@ -2867,7 +5683,7 @@
     <mergeCell ref="D5:D6"/>
     <mergeCell ref="E5:E6"/>
   </mergeCells>
-  <conditionalFormatting sqref="D7:D18">
+  <conditionalFormatting sqref="D7:D31">
     <cfRule type="dataBar" priority="23">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -2881,28 +5697,81 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I8:BL12">
-    <cfRule type="expression" dxfId="4" priority="6">
+  <conditionalFormatting sqref="I9:DH11">
+    <cfRule type="expression" dxfId="17" priority="6">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="16" priority="7" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I13:BL17">
-    <cfRule type="expression" dxfId="2" priority="4">
+  <conditionalFormatting sqref="I13:DH16">
+    <cfRule type="expression" dxfId="15" priority="4">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="14" priority="5" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I4:BL17">
-    <cfRule type="expression" dxfId="0" priority="1">
+  <conditionalFormatting sqref="I18:DH22">
+    <cfRule type="expression" dxfId="13" priority="2">
+      <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="12" priority="3" stopIfTrue="1">
+      <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I24:DH30">
+    <cfRule type="expression" dxfId="11" priority="36">
+      <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="10" priority="37" stopIfTrue="1">
+      <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I4:BL30 BM9:DH11 BM4:DH6 BM13:DH30">
+    <cfRule type="expression" dxfId="9" priority="1">
       <formula>AND(TODAY()&gt;=I$5, TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="8">
+  <conditionalFormatting sqref="DI9:DI11">
+    <cfRule type="expression" dxfId="8" priority="42">
+      <formula>AND(task_start&lt;=DI$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=DI$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="7" priority="43" stopIfTrue="1">
+      <formula>AND(task_end&gt;=DI$5,task_start&lt;#REF!)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="DI13:DI16">
+    <cfRule type="expression" dxfId="6" priority="48">
+      <formula>AND(task_start&lt;=DI$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=DI$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="49" stopIfTrue="1">
+      <formula>AND(task_end&gt;=DI$5,task_start&lt;#REF!)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="DI18:DI22">
+    <cfRule type="expression" dxfId="4" priority="54">
+      <formula>AND(task_start&lt;=DI$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=DI$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="55" stopIfTrue="1">
+      <formula>AND(task_end&gt;=DI$5,task_start&lt;#REF!)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="DI24:DI30">
+    <cfRule type="expression" dxfId="2" priority="60">
+      <formula>AND(task_start&lt;=DI$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=DI$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="61" stopIfTrue="1">
+      <formula>AND(task_end&gt;=DI$5,task_start&lt;#REF!)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="DI9:DI11 DI4:DI6 DI13:DI30">
+    <cfRule type="expression" dxfId="0" priority="64">
+      <formula>AND(TODAY()&gt;=DI$5, TODAY()&lt;#REF!)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="12">
     <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" promptTitle="Display Week" prompt="Changing this number will scroll the Gantt Chart view." sqref="Q2" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>1</formula1>
     </dataValidation>
@@ -2911,8 +5780,12 @@
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter the name of the Project Lead in cell C3. Enter the Project Start date in cell Q1. Project Start: label is in cell I1." sqref="A3" xr:uid="{EEA7C783-457F-401F-98B9-9035587B9210}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="The Display week in cell Q2 is the starting week to display in the project schedule in cell I4. The project start date is Week 1. To change the display week, enter a new week number in cell Q2._x000a__x000a_Start date for each week is auto calculated starting in I4." sqref="A4" xr:uid="{43382715-6BC7-4B19-A31B-4B13A11ED166}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Cells I5 through BL5 contain the day number for the week represented in the cell block above each date and are auto calculated._x000a__x000a_Today's date is outlined from today's date in row 5 through the entire date column to the end of the project schedule." sqref="A5:A6" xr:uid="{7A3789A6-A3FB-43B6-A4F7-8C0AC564F67E}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="B9 contains the task name.  C9 is the assignee.  D9 is a progress bar that shades based on the number entered into the cell.  _x000a__x000a_E9 contains the start date and F9 contains the end date._x000a__x000a_The Gantt chart will fill in starting in cell I9 based on task dates." sqref="A8" xr:uid="{D870A2F6-6B07-4F5A-A81D-4BCCFADF8796}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Rows 10 through 13 repeat the pattern from row 9. _x000a__x000a_Repeat the instructions from cell A9 for all task rows in this worksheet. _x000a__x000a_Continue entering tasks in cells A10 through A13 or go to cell A14 to learn more." sqref="A9" xr:uid="{872449A7-C3CC-45B6-BA90-B1AAD66BA0E5}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Cell B8 contains the Phase 1 sample title. Enter a new title in cell B8._x000a_To delete the phase and work only from tasks, simply delete this row." sqref="A8" xr:uid="{CEC78982-AFA8-419E-B0A2-676B709E5100}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="B9 contains the task name.  C9 is the assignee.  D9 is a progress bar that shades based on the number entered into the cell.  _x000a__x000a_E9 contains the start date and F9 contains the end date._x000a__x000a_The Gantt chart will fill in starting in cell I9 based on task dates." sqref="A9" xr:uid="{D870A2F6-6B07-4F5A-A81D-4BCCFADF8796}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Rows 10 through 13 repeat the pattern from row 9. _x000a__x000a_Repeat the instructions from cell A9 for all task rows in this worksheet. _x000a__x000a_Continue entering tasks in cells A10 through A13 or go to cell A14 to learn more." sqref="A10" xr:uid="{872449A7-C3CC-45B6-BA90-B1AAD66BA0E5}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Cell B14 contains the Phase 2 sample title. Enter a new title in cell B14._x000a_To delete the phase and work only from tasks, simply delete this row. To remove the phase, simply delete the row. Add tasks to previous phase by entering a new row above this one._x000a_" sqref="A12" xr:uid="{4F48FC41-E335-47F1-87AA-3333A52AD81C}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Phase 3's sample block starts in cell B20." sqref="A17" xr:uid="{956902D1-D3B5-416D-BB69-9362D193BC0A}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Phase 4's sample block starts in cell B26." sqref="A23" xr:uid="{DE54E5DE-526D-4D71-8D03-E99B4AB2FEE5}"/>
   </dataValidations>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.35" right="0.35" top="0.35" bottom="0.5" header="0.3" footer="0.3"/>
@@ -2921,7 +5794,7 @@
     <oddFooter>Page &amp;P of &amp;N</oddFooter>
   </headerFooter>
   <ignoredErrors>
-    <ignoredError sqref="F16" formula="1"/>
+    <ignoredError sqref="E20" formula="1"/>
   </ignoredErrors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
@@ -2939,7 +5812,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D7:D18</xm:sqref>
+          <xm:sqref>D7:D31</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -3289,51 +6162,15 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97245281-08F3-4104-84BD-39F3D8CFB195}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97245281-08F3-4104-84BD-39F3D8CFB195}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C2348D59-3426-404A-A0C5-6456F6613EDB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
-    <ds:schemaRef ds:uri="16c05727-aa75-4e4a-9b5f-8a80a1165891"/>
-    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C2348D59-3426-404A-A0C5-6456F6613EDB}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A82239A0-E68C-493F-BEE6-C77FEA397FD6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="16c05727-aa75-4e4a-9b5f-8a80a1165891"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A82239A0-E68C-493F-BEE6-C77FEA397FD6}"/>
 </file>
 
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
